--- a/forecasts_table_SP.xlsx
+++ b/forecasts_table_SP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -96,6 +96,9 @@
     <t xml:space="preserve">2020-05-06</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-05-07</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-04-05</t>
   </si>
   <si>
@@ -117,9 +120,6 @@
     <t xml:space="preserve">2020-04-11</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-07</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-05-08</t>
   </si>
   <si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-13</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,13 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="n">
         <v>4620</v>
@@ -581,10 +587,11 @@
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
+      <c r="AB2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="n">
         <v>4866</v>
@@ -618,10 +625,11 @@
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
+      <c r="AB3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="n">
         <v>5682</v>
@@ -657,10 +665,11 @@
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
+      <c r="AB4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="n">
         <v>6708</v>
@@ -698,10 +707,11 @@
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
+      <c r="AB5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="n">
         <v>7480</v>
@@ -741,10 +751,11 @@
       <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
+      <c r="AB6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="n">
         <v>8216</v>
@@ -786,10 +797,11 @@
       <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7"/>
+      <c r="AB7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>8419</v>
@@ -833,6 +845,7 @@
       <c r="Y8"/>
       <c r="Z8"/>
       <c r="AA8"/>
+      <c r="AB8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -882,6 +895,7 @@
       <c r="Y9"/>
       <c r="Z9"/>
       <c r="AA9"/>
+      <c r="AB9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -933,6 +947,7 @@
       <c r="Y10"/>
       <c r="Z10"/>
       <c r="AA10"/>
+      <c r="AB10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -986,6 +1001,7 @@
       <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11"/>
+      <c r="AB11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1041,6 +1057,7 @@
       <c r="Y12"/>
       <c r="Z12"/>
       <c r="AA12"/>
+      <c r="AB12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1098,6 +1115,7 @@
       <c r="Y13"/>
       <c r="Z13"/>
       <c r="AA13"/>
+      <c r="AB13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1157,6 +1175,7 @@
       <c r="Y14"/>
       <c r="Z14"/>
       <c r="AA14"/>
+      <c r="AB14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1218,6 +1237,7 @@
       <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15"/>
+      <c r="AB15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1279,6 +1299,7 @@
       <c r="Y16"/>
       <c r="Z16"/>
       <c r="AA16"/>
+      <c r="AB16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1340,6 +1361,7 @@
       <c r="Y17"/>
       <c r="Z17"/>
       <c r="AA17"/>
+      <c r="AB17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1401,6 +1423,7 @@
       <c r="Y18"/>
       <c r="Z18"/>
       <c r="AA18"/>
+      <c r="AB18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1462,6 +1485,7 @@
       <c r="Y19"/>
       <c r="Z19"/>
       <c r="AA19"/>
+      <c r="AB19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1523,6 +1547,7 @@
       <c r="Y20"/>
       <c r="Z20"/>
       <c r="AA20"/>
+      <c r="AB20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1584,6 +1609,7 @@
       <c r="Y21"/>
       <c r="Z21"/>
       <c r="AA21"/>
+      <c r="AB21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1645,6 +1671,7 @@
       <c r="Y22"/>
       <c r="Z22"/>
       <c r="AA22"/>
+      <c r="AB22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1706,6 +1733,7 @@
       <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23"/>
+      <c r="AB23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1767,6 +1795,7 @@
       </c>
       <c r="Z24"/>
       <c r="AA24"/>
+      <c r="AB24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1828,12 +1857,15 @@
         <v>71283</v>
       </c>
       <c r="AA25"/>
+      <c r="AB25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B26"/>
+      <c r="B26" t="n">
+        <v>26158</v>
+      </c>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -1887,6 +1919,7 @@
       <c r="AA26" t="n">
         <v>77450</v>
       </c>
+      <c r="AB26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1943,6 +1976,9 @@
       </c>
       <c r="AA27" t="n">
         <v>84157</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>84920</v>
       </c>
     </row>
     <row r="28">
@@ -1998,6 +2034,9 @@
       </c>
       <c r="AA28" t="n">
         <v>91559</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>92411</v>
       </c>
     </row>
     <row r="29">
@@ -2051,6 +2090,9 @@
       </c>
       <c r="AA29" t="n">
         <v>99806</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>100756</v>
       </c>
     </row>
     <row r="30">
@@ -2102,6 +2144,9 @@
       </c>
       <c r="AA30" t="n">
         <v>107613</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>108573</v>
       </c>
     </row>
     <row r="31">
@@ -2151,6 +2196,9 @@
       </c>
       <c r="AA31" t="n">
         <v>116896</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>118002</v>
       </c>
     </row>
     <row r="32">
@@ -2198,6 +2246,9 @@
       </c>
       <c r="AA32" t="n">
         <v>126813</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>127991</v>
       </c>
     </row>
     <row r="33">
@@ -2244,10 +2295,13 @@
       <c r="AA33" t="n">
         <v>136577</v>
       </c>
+      <c r="AB33" t="n">
+        <v>138144</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -2286,6 +2340,9 @@
       </c>
       <c r="AA34" t="n">
         <v>145894</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>147911</v>
       </c>
     </row>
     <row r="35">
@@ -2327,6 +2384,9 @@
       </c>
       <c r="AA35" t="n">
         <v>154588</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>157099</v>
       </c>
     </row>
     <row r="36">
@@ -2366,6 +2426,9 @@
       </c>
       <c r="AA36" t="n">
         <v>162108</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>165135</v>
       </c>
     </row>
     <row r="37">
@@ -2403,6 +2466,9 @@
       </c>
       <c r="AA37" t="n">
         <v>169211</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>172733</v>
       </c>
     </row>
     <row r="38">
@@ -2438,6 +2504,9 @@
       </c>
       <c r="AA38" t="n">
         <v>176075</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>180048</v>
       </c>
     </row>
     <row r="39">
@@ -2472,6 +2541,43 @@
       <c r="AA39" t="n">
         <v>182374</v>
       </c>
+      <c r="AB39" t="n">
+        <v>186892</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40" t="n">
+        <v>193040</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2569,10 +2675,13 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="n">
         <v>275</v>
@@ -2604,10 +2713,11 @@
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
+      <c r="AB2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="n">
         <v>304</v>
@@ -2641,10 +2751,11 @@
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
+      <c r="AB3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="n">
         <v>371</v>
@@ -2680,10 +2791,11 @@
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
+      <c r="AB4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="n">
         <v>428</v>
@@ -2721,10 +2833,11 @@
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
+      <c r="AB5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="n">
         <v>496</v>
@@ -2764,10 +2877,11 @@
       <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
+      <c r="AB6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="n">
         <v>540</v>
@@ -2809,10 +2923,11 @@
       <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7"/>
+      <c r="AB7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>560</v>
@@ -2856,6 +2971,7 @@
       <c r="Y8"/>
       <c r="Z8"/>
       <c r="AA8"/>
+      <c r="AB8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2905,6 +3021,7 @@
       <c r="Y9"/>
       <c r="Z9"/>
       <c r="AA9"/>
+      <c r="AB9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2956,6 +3073,7 @@
       <c r="Y10"/>
       <c r="Z10"/>
       <c r="AA10"/>
+      <c r="AB10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3009,6 +3127,7 @@
       <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11"/>
+      <c r="AB11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3064,6 +3183,7 @@
       <c r="Y12"/>
       <c r="Z12"/>
       <c r="AA12"/>
+      <c r="AB12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3121,6 +3241,7 @@
       <c r="Y13"/>
       <c r="Z13"/>
       <c r="AA13"/>
+      <c r="AB13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3180,6 +3301,7 @@
       <c r="Y14"/>
       <c r="Z14"/>
       <c r="AA14"/>
+      <c r="AB14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3241,6 +3363,7 @@
       <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15"/>
+      <c r="AB15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3302,6 +3425,7 @@
       <c r="Y16"/>
       <c r="Z16"/>
       <c r="AA16"/>
+      <c r="AB16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3363,6 +3487,7 @@
       <c r="Y17"/>
       <c r="Z17"/>
       <c r="AA17"/>
+      <c r="AB17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3424,6 +3549,7 @@
       <c r="Y18"/>
       <c r="Z18"/>
       <c r="AA18"/>
+      <c r="AB18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3485,6 +3611,7 @@
       <c r="Y19"/>
       <c r="Z19"/>
       <c r="AA19"/>
+      <c r="AB19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3546,6 +3673,7 @@
       <c r="Y20"/>
       <c r="Z20"/>
       <c r="AA20"/>
+      <c r="AB20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3607,6 +3735,7 @@
       <c r="Y21"/>
       <c r="Z21"/>
       <c r="AA21"/>
+      <c r="AB21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -3668,6 +3797,7 @@
       <c r="Y22"/>
       <c r="Z22"/>
       <c r="AA22"/>
+      <c r="AB22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -3729,6 +3859,7 @@
       <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23"/>
+      <c r="AB23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -3790,6 +3921,7 @@
       </c>
       <c r="Z24"/>
       <c r="AA24"/>
+      <c r="AB24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -3851,12 +3983,15 @@
         <v>4873</v>
       </c>
       <c r="AA25"/>
+      <c r="AB25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B26"/>
+      <c r="B26" t="n">
+        <v>2247</v>
+      </c>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -3910,6 +4045,7 @@
       <c r="AA26" t="n">
         <v>5348</v>
       </c>
+      <c r="AB26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -3966,6 +4102,9 @@
       </c>
       <c r="AA27" t="n">
         <v>5873</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>5986</v>
       </c>
     </row>
     <row r="28">
@@ -4021,6 +4160,9 @@
       </c>
       <c r="AA28" t="n">
         <v>6355</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>6559</v>
       </c>
     </row>
     <row r="29">
@@ -4074,6 +4216,9 @@
       </c>
       <c r="AA29" t="n">
         <v>6962</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>7215</v>
       </c>
     </row>
     <row r="30">
@@ -4125,6 +4270,9 @@
       </c>
       <c r="AA30" t="n">
         <v>7413</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>7829</v>
       </c>
     </row>
     <row r="31">
@@ -4174,6 +4322,9 @@
       </c>
       <c r="AA31" t="n">
         <v>8148</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>8592</v>
       </c>
     </row>
     <row r="32">
@@ -4221,6 +4372,9 @@
       </c>
       <c r="AA32" t="n">
         <v>8764</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9393</v>
       </c>
     </row>
     <row r="33">
@@ -4267,10 +4421,13 @@
       <c r="AA33" t="n">
         <v>9336</v>
       </c>
+      <c r="AB33" t="n">
+        <v>10187</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -4309,6 +4466,9 @@
       </c>
       <c r="AA34" t="n">
         <v>9888</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>10955</v>
       </c>
     </row>
     <row r="35">
@@ -4350,6 +4510,9 @@
       </c>
       <c r="AA35" t="n">
         <v>10380</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>11675</v>
       </c>
     </row>
     <row r="36">
@@ -4389,6 +4552,9 @@
       </c>
       <c r="AA36" t="n">
         <v>10764</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>12299</v>
       </c>
     </row>
     <row r="37">
@@ -4426,6 +4592,9 @@
       </c>
       <c r="AA37" t="n">
         <v>11206</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>12903</v>
       </c>
     </row>
     <row r="38">
@@ -4461,6 +4630,9 @@
       </c>
       <c r="AA38" t="n">
         <v>11612</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>13483</v>
       </c>
     </row>
     <row r="39">
@@ -4495,6 +4667,43 @@
       <c r="AA39" t="n">
         <v>11943</v>
       </c>
+      <c r="AB39" t="n">
+        <v>14011</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40" t="n">
+        <v>14503</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table_SP.xlsx
+++ b/forecasts_table_SP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-14</t>
   </si>
 </sst>
 </file>
@@ -507,6 +510,9 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -535,6 +541,7 @@
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
+      <c r="U2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -565,6 +572,7 @@
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
+      <c r="U3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -597,6 +605,7 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -631,6 +640,7 @@
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -667,6 +677,7 @@
       <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -705,6 +716,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -745,6 +757,7 @@
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
+      <c r="U8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -787,6 +800,7 @@
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
+      <c r="U9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -831,6 +845,7 @@
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
+      <c r="U10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -877,6 +892,7 @@
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
+      <c r="U11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -925,6 +941,7 @@
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
+      <c r="U12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -975,6 +992,7 @@
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
+      <c r="U13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1027,6 +1045,7 @@
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14"/>
+      <c r="U14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1081,6 +1100,7 @@
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15"/>
+      <c r="U15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1135,6 +1155,7 @@
       <c r="R16"/>
       <c r="S16"/>
       <c r="T16"/>
+      <c r="U16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1189,6 +1210,7 @@
       </c>
       <c r="S17"/>
       <c r="T17"/>
+      <c r="U17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1243,12 +1265,15 @@
         <v>25476</v>
       </c>
       <c r="T18"/>
+      <c r="U18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="n">
+        <v>28698</v>
+      </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1295,6 +1320,7 @@
       <c r="T19" t="n">
         <v>28003</v>
       </c>
+      <c r="U19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1344,6 +1370,9 @@
       </c>
       <c r="T20" t="n">
         <v>30795</v>
+      </c>
+      <c r="U20" t="n">
+        <v>31737</v>
       </c>
     </row>
     <row r="21">
@@ -1392,6 +1421,9 @@
       </c>
       <c r="T21" t="n">
         <v>33046</v>
+      </c>
+      <c r="U21" t="n">
+        <v>34185</v>
       </c>
     </row>
     <row r="22">
@@ -1438,6 +1470,9 @@
       </c>
       <c r="T22" t="n">
         <v>36111</v>
+      </c>
+      <c r="U22" t="n">
+        <v>37593</v>
       </c>
     </row>
     <row r="23">
@@ -1482,6 +1517,9 @@
       </c>
       <c r="T23" t="n">
         <v>38126</v>
+      </c>
+      <c r="U23" t="n">
+        <v>39799</v>
       </c>
     </row>
     <row r="24">
@@ -1524,6 +1562,9 @@
       </c>
       <c r="T24" t="n">
         <v>42073</v>
+      </c>
+      <c r="U24" t="n">
+        <v>44284</v>
       </c>
     </row>
     <row r="25">
@@ -1564,6 +1605,9 @@
       </c>
       <c r="T25" t="n">
         <v>45227</v>
+      </c>
+      <c r="U25" t="n">
+        <v>47826</v>
       </c>
     </row>
     <row r="26">
@@ -1602,6 +1646,9 @@
       </c>
       <c r="T26" t="n">
         <v>48047</v>
+      </c>
+      <c r="U26" t="n">
+        <v>51000</v>
       </c>
     </row>
     <row r="27">
@@ -1638,6 +1685,9 @@
       </c>
       <c r="T27" t="n">
         <v>50735</v>
+      </c>
+      <c r="U27" t="n">
+        <v>54052</v>
       </c>
     </row>
     <row r="28">
@@ -1672,6 +1722,9 @@
       </c>
       <c r="T28" t="n">
         <v>53004</v>
+      </c>
+      <c r="U28" t="n">
+        <v>56628</v>
       </c>
     </row>
     <row r="29">
@@ -1704,6 +1757,9 @@
       </c>
       <c r="T29" t="n">
         <v>54638</v>
+      </c>
+      <c r="U29" t="n">
+        <v>58459</v>
       </c>
     </row>
     <row r="30">
@@ -1734,6 +1790,9 @@
       </c>
       <c r="T30" t="n">
         <v>56800</v>
+      </c>
+      <c r="U30" t="n">
+        <v>60932</v>
       </c>
     </row>
     <row r="31">
@@ -1762,6 +1821,9 @@
       </c>
       <c r="T31" t="n">
         <v>58651</v>
+      </c>
+      <c r="U31" t="n">
+        <v>63045</v>
       </c>
     </row>
     <row r="32">
@@ -1789,6 +1851,36 @@
       <c r="T32" t="n">
         <v>60037</v>
       </c>
+      <c r="U32" t="n">
+        <v>64589</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33" t="n">
+        <v>66423</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1865,6 +1957,9 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1893,6 +1988,7 @@
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
+      <c r="U2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1923,6 +2019,7 @@
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
+      <c r="U3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1955,6 +2052,7 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1989,6 +2087,7 @@
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2025,6 +2124,7 @@
       <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2063,6 +2163,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2103,6 +2204,7 @@
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
+      <c r="U8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2145,6 +2247,7 @@
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
+      <c r="U9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2189,6 +2292,7 @@
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
+      <c r="U10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2235,6 +2339,7 @@
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
+      <c r="U11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2283,6 +2388,7 @@
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
+      <c r="U12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2333,6 +2439,7 @@
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
+      <c r="U13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2385,6 +2492,7 @@
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14"/>
+      <c r="U14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2439,6 +2547,7 @@
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15"/>
+      <c r="U15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2493,6 +2602,7 @@
       <c r="R16"/>
       <c r="S16"/>
       <c r="T16"/>
+      <c r="U16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2547,6 +2657,7 @@
       </c>
       <c r="S17"/>
       <c r="T17"/>
+      <c r="U17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -2601,12 +2712,15 @@
         <v>2142</v>
       </c>
       <c r="T18"/>
+      <c r="U18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="n">
+        <v>2375</v>
+      </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -2653,6 +2767,7 @@
       <c r="T19" t="n">
         <v>2429</v>
       </c>
+      <c r="U19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -2702,6 +2817,9 @@
       </c>
       <c r="T20" t="n">
         <v>2701</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2695</v>
       </c>
     </row>
     <row r="21">
@@ -2750,6 +2868,9 @@
       </c>
       <c r="T21" t="n">
         <v>2933</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2908</v>
       </c>
     </row>
     <row r="22">
@@ -2796,6 +2917,9 @@
       </c>
       <c r="T22" t="n">
         <v>3245</v>
+      </c>
+      <c r="U22" t="n">
+        <v>3209</v>
       </c>
     </row>
     <row r="23">
@@ -2840,6 +2964,9 @@
       </c>
       <c r="T23" t="n">
         <v>3466</v>
+      </c>
+      <c r="U23" t="n">
+        <v>3401</v>
       </c>
     </row>
     <row r="24">
@@ -2882,6 +3009,9 @@
       </c>
       <c r="T24" t="n">
         <v>3871</v>
+      </c>
+      <c r="U24" t="n">
+        <v>3802</v>
       </c>
     </row>
     <row r="25">
@@ -2922,6 +3052,9 @@
       </c>
       <c r="T25" t="n">
         <v>4215</v>
+      </c>
+      <c r="U25" t="n">
+        <v>4115</v>
       </c>
     </row>
     <row r="26">
@@ -2960,6 +3093,9 @@
       </c>
       <c r="T26" t="n">
         <v>4529</v>
+      </c>
+      <c r="U26" t="n">
+        <v>4395</v>
       </c>
     </row>
     <row r="27">
@@ -2996,6 +3132,9 @@
       </c>
       <c r="T27" t="n">
         <v>4829</v>
+      </c>
+      <c r="U27" t="n">
+        <v>4664</v>
       </c>
     </row>
     <row r="28">
@@ -3030,6 +3169,9 @@
       </c>
       <c r="T28" t="n">
         <v>5088</v>
+      </c>
+      <c r="U28" t="n">
+        <v>4891</v>
       </c>
     </row>
     <row r="29">
@@ -3062,6 +3204,9 @@
       </c>
       <c r="T29" t="n">
         <v>5281</v>
+      </c>
+      <c r="U29" t="n">
+        <v>5051</v>
       </c>
     </row>
     <row r="30">
@@ -3092,6 +3237,9 @@
       </c>
       <c r="T30" t="n">
         <v>5524</v>
+      </c>
+      <c r="U30" t="n">
+        <v>5272</v>
       </c>
     </row>
     <row r="31">
@@ -3120,6 +3268,9 @@
       </c>
       <c r="T31" t="n">
         <v>5736</v>
+      </c>
+      <c r="U31" t="n">
+        <v>5459</v>
       </c>
     </row>
     <row r="32">
@@ -3147,6 +3298,36 @@
       <c r="T32" t="n">
         <v>5900</v>
       </c>
+      <c r="U32" t="n">
+        <v>5596</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33" t="n">
+        <v>5760</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table_SP.xlsx
+++ b/forecasts_table_SP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-15</t>
   </si>
 </sst>
 </file>
@@ -513,6 +516,9 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -542,6 +548,7 @@
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
+      <c r="V2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -573,6 +580,7 @@
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
+      <c r="V3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -606,6 +614,7 @@
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
+      <c r="V4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -641,6 +650,7 @@
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -678,6 +688,7 @@
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -717,6 +728,7 @@
       <c r="S7"/>
       <c r="T7"/>
       <c r="U7"/>
+      <c r="V7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -758,6 +770,7 @@
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
+      <c r="V8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -801,6 +814,7 @@
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
+      <c r="V9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -846,6 +860,7 @@
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
+      <c r="V10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -893,6 +908,7 @@
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
+      <c r="V11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -942,6 +958,7 @@
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12"/>
+      <c r="V12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -993,6 +1010,7 @@
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
+      <c r="V13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1046,6 +1064,7 @@
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14"/>
+      <c r="V14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1101,6 +1120,7 @@
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15"/>
+      <c r="V15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1156,6 +1176,7 @@
       <c r="S16"/>
       <c r="T16"/>
       <c r="U16"/>
+      <c r="V16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1211,6 +1232,7 @@
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
+      <c r="V17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1266,6 +1288,7 @@
       </c>
       <c r="T18"/>
       <c r="U18"/>
+      <c r="V18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1321,12 +1344,15 @@
         <v>28003</v>
       </c>
       <c r="U19"/>
+      <c r="V19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20"/>
+      <c r="B20" t="n">
+        <v>30374</v>
+      </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1374,6 +1400,7 @@
       <c r="U20" t="n">
         <v>31737</v>
       </c>
+      <c r="V20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1424,6 +1451,9 @@
       </c>
       <c r="U21" t="n">
         <v>34185</v>
+      </c>
+      <c r="V21" t="n">
+        <v>32739</v>
       </c>
     </row>
     <row r="22">
@@ -1473,6 +1503,9 @@
       </c>
       <c r="U22" t="n">
         <v>37593</v>
+      </c>
+      <c r="V22" t="n">
+        <v>35440</v>
       </c>
     </row>
     <row r="23">
@@ -1520,6 +1553,9 @@
       </c>
       <c r="U23" t="n">
         <v>39799</v>
+      </c>
+      <c r="V23" t="n">
+        <v>38033</v>
       </c>
     </row>
     <row r="24">
@@ -1565,6 +1601,9 @@
       </c>
       <c r="U24" t="n">
         <v>44284</v>
+      </c>
+      <c r="V24" t="n">
+        <v>41669</v>
       </c>
     </row>
     <row r="25">
@@ -1608,6 +1647,9 @@
       </c>
       <c r="U25" t="n">
         <v>47826</v>
+      </c>
+      <c r="V25" t="n">
+        <v>45105</v>
       </c>
     </row>
     <row r="26">
@@ -1649,6 +1691,9 @@
       </c>
       <c r="U26" t="n">
         <v>51000</v>
+      </c>
+      <c r="V26" t="n">
+        <v>48495</v>
       </c>
     </row>
     <row r="27">
@@ -1688,6 +1733,9 @@
       </c>
       <c r="U27" t="n">
         <v>54052</v>
+      </c>
+      <c r="V27" t="n">
+        <v>51479</v>
       </c>
     </row>
     <row r="28">
@@ -1725,6 +1773,9 @@
       </c>
       <c r="U28" t="n">
         <v>56628</v>
+      </c>
+      <c r="V28" t="n">
+        <v>54087</v>
       </c>
     </row>
     <row r="29">
@@ -1760,6 +1811,9 @@
       </c>
       <c r="U29" t="n">
         <v>58459</v>
+      </c>
+      <c r="V29" t="n">
+        <v>55793</v>
       </c>
     </row>
     <row r="30">
@@ -1793,6 +1847,9 @@
       </c>
       <c r="U30" t="n">
         <v>60932</v>
+      </c>
+      <c r="V30" t="n">
+        <v>58460</v>
       </c>
     </row>
     <row r="31">
@@ -1824,6 +1881,9 @@
       </c>
       <c r="U31" t="n">
         <v>63045</v>
+      </c>
+      <c r="V31" t="n">
+        <v>60793</v>
       </c>
     </row>
     <row r="32">
@@ -1853,6 +1913,9 @@
       </c>
       <c r="U32" t="n">
         <v>64589</v>
+      </c>
+      <c r="V32" t="n">
+        <v>62978</v>
       </c>
     </row>
     <row r="33">
@@ -1881,6 +1944,37 @@
       <c r="U33" t="n">
         <v>66423</v>
       </c>
+      <c r="V33" t="n">
+        <v>64822</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34" t="n">
+        <v>66346</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1959,6 +2053,9 @@
       </c>
       <c r="U1" t="s">
         <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -1989,6 +2086,7 @@
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
+      <c r="V2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2020,6 +2118,7 @@
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
+      <c r="V3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2053,6 +2152,7 @@
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
+      <c r="V4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2088,6 +2188,7 @@
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2125,6 +2226,7 @@
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2164,6 +2266,7 @@
       <c r="S7"/>
       <c r="T7"/>
       <c r="U7"/>
+      <c r="V7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2205,6 +2308,7 @@
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
+      <c r="V8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2248,6 +2352,7 @@
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
+      <c r="V9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2293,6 +2398,7 @@
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
+      <c r="V10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2340,6 +2446,7 @@
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
+      <c r="V11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2389,6 +2496,7 @@
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12"/>
+      <c r="V12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2440,6 +2548,7 @@
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
+      <c r="V13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2493,6 +2602,7 @@
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14"/>
+      <c r="V14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2548,6 +2658,7 @@
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15"/>
+      <c r="V15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2603,6 +2714,7 @@
       <c r="S16"/>
       <c r="T16"/>
       <c r="U16"/>
+      <c r="V16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2658,6 +2770,7 @@
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
+      <c r="V17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -2713,6 +2826,7 @@
       </c>
       <c r="T18"/>
       <c r="U18"/>
+      <c r="V18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -2768,12 +2882,15 @@
         <v>2429</v>
       </c>
       <c r="U19"/>
+      <c r="V19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20"/>
+      <c r="B20" t="n">
+        <v>2511</v>
+      </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -2821,6 +2938,7 @@
       <c r="U20" t="n">
         <v>2695</v>
       </c>
+      <c r="V20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -2871,6 +2989,9 @@
       </c>
       <c r="U21" t="n">
         <v>2908</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2672</v>
       </c>
     </row>
     <row r="22">
@@ -2920,6 +3041,9 @@
       </c>
       <c r="U22" t="n">
         <v>3209</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2895</v>
       </c>
     </row>
     <row r="23">
@@ -2967,6 +3091,9 @@
       </c>
       <c r="U23" t="n">
         <v>3401</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2997</v>
       </c>
     </row>
     <row r="24">
@@ -3012,6 +3139,9 @@
       </c>
       <c r="U24" t="n">
         <v>3802</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3284</v>
       </c>
     </row>
     <row r="25">
@@ -3055,6 +3185,9 @@
       </c>
       <c r="U25" t="n">
         <v>4115</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3455</v>
       </c>
     </row>
     <row r="26">
@@ -3096,6 +3229,9 @@
       </c>
       <c r="U26" t="n">
         <v>4395</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3611</v>
       </c>
     </row>
     <row r="27">
@@ -3135,6 +3271,9 @@
       </c>
       <c r="U27" t="n">
         <v>4664</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3757</v>
       </c>
     </row>
     <row r="28">
@@ -3172,6 +3311,9 @@
       </c>
       <c r="U28" t="n">
         <v>4891</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3873</v>
       </c>
     </row>
     <row r="29">
@@ -3207,6 +3349,9 @@
       </c>
       <c r="U29" t="n">
         <v>5051</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3947</v>
       </c>
     </row>
     <row r="30">
@@ -3240,6 +3385,9 @@
       </c>
       <c r="U30" t="n">
         <v>5272</v>
+      </c>
+      <c r="V30" t="n">
+        <v>4078</v>
       </c>
     </row>
     <row r="31">
@@ -3271,6 +3419,9 @@
       </c>
       <c r="U31" t="n">
         <v>5459</v>
+      </c>
+      <c r="V31" t="n">
+        <v>4181</v>
       </c>
     </row>
     <row r="32">
@@ -3300,6 +3451,9 @@
       </c>
       <c r="U32" t="n">
         <v>5596</v>
+      </c>
+      <c r="V32" t="n">
+        <v>4253</v>
       </c>
     </row>
     <row r="33">
@@ -3328,6 +3482,37 @@
       <c r="U33" t="n">
         <v>5760</v>
       </c>
+      <c r="V33" t="n">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34" t="n">
+        <v>4403</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table_SP.xlsx
+++ b/forecasts_table_SP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-16</t>
   </si>
 </sst>
 </file>
@@ -519,6 +522,9 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -549,6 +555,7 @@
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
+      <c r="W2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -581,6 +588,7 @@
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
+      <c r="W3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -615,6 +623,7 @@
       <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
+      <c r="W4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -651,6 +660,7 @@
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
+      <c r="W5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -689,6 +699,7 @@
       <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
+      <c r="W6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -729,6 +740,7 @@
       <c r="T7"/>
       <c r="U7"/>
       <c r="V7"/>
+      <c r="W7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -771,6 +783,7 @@
       <c r="T8"/>
       <c r="U8"/>
       <c r="V8"/>
+      <c r="W8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -815,6 +828,7 @@
       <c r="T9"/>
       <c r="U9"/>
       <c r="V9"/>
+      <c r="W9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -861,6 +875,7 @@
       <c r="T10"/>
       <c r="U10"/>
       <c r="V10"/>
+      <c r="W10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -909,6 +924,7 @@
       <c r="T11"/>
       <c r="U11"/>
       <c r="V11"/>
+      <c r="W11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -959,6 +975,7 @@
       <c r="T12"/>
       <c r="U12"/>
       <c r="V12"/>
+      <c r="W12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1011,6 +1028,7 @@
       <c r="T13"/>
       <c r="U13"/>
       <c r="V13"/>
+      <c r="W13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1065,6 +1083,7 @@
       <c r="T14"/>
       <c r="U14"/>
       <c r="V14"/>
+      <c r="W14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1121,6 +1140,7 @@
       <c r="T15"/>
       <c r="U15"/>
       <c r="V15"/>
+      <c r="W15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1177,6 +1197,7 @@
       <c r="T16"/>
       <c r="U16"/>
       <c r="V16"/>
+      <c r="W16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1233,6 +1254,7 @@
       <c r="T17"/>
       <c r="U17"/>
       <c r="V17"/>
+      <c r="W17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1289,6 +1311,7 @@
       <c r="T18"/>
       <c r="U18"/>
       <c r="V18"/>
+      <c r="W18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1345,6 +1368,7 @@
       </c>
       <c r="U19"/>
       <c r="V19"/>
+      <c r="W19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1401,12 +1425,15 @@
         <v>31737</v>
       </c>
       <c r="V20"/>
+      <c r="W20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21"/>
+      <c r="B21" t="n">
+        <v>31174</v>
+      </c>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -1455,6 +1482,7 @@
       <c r="V21" t="n">
         <v>32739</v>
       </c>
+      <c r="W21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1506,6 +1534,9 @@
       </c>
       <c r="V22" t="n">
         <v>35440</v>
+      </c>
+      <c r="W22" t="n">
+        <v>33502</v>
       </c>
     </row>
     <row r="23">
@@ -1556,6 +1587,9 @@
       </c>
       <c r="V23" t="n">
         <v>38033</v>
+      </c>
+      <c r="W23" t="n">
+        <v>36247</v>
       </c>
     </row>
     <row r="24">
@@ -1604,6 +1638,9 @@
       </c>
       <c r="V24" t="n">
         <v>41669</v>
+      </c>
+      <c r="W24" t="n">
+        <v>39220</v>
       </c>
     </row>
     <row r="25">
@@ -1650,6 +1687,9 @@
       </c>
       <c r="V25" t="n">
         <v>45105</v>
+      </c>
+      <c r="W25" t="n">
+        <v>42482</v>
       </c>
     </row>
     <row r="26">
@@ -1694,6 +1734,9 @@
       </c>
       <c r="V26" t="n">
         <v>48495</v>
+      </c>
+      <c r="W26" t="n">
+        <v>45829</v>
       </c>
     </row>
     <row r="27">
@@ -1736,6 +1779,9 @@
       </c>
       <c r="V27" t="n">
         <v>51479</v>
+      </c>
+      <c r="W27" t="n">
+        <v>48455</v>
       </c>
     </row>
     <row r="28">
@@ -1776,6 +1822,9 @@
       </c>
       <c r="V28" t="n">
         <v>54087</v>
+      </c>
+      <c r="W28" t="n">
+        <v>50727</v>
       </c>
     </row>
     <row r="29">
@@ -1814,6 +1863,9 @@
       </c>
       <c r="V29" t="n">
         <v>55793</v>
+      </c>
+      <c r="W29" t="n">
+        <v>52094</v>
       </c>
     </row>
     <row r="30">
@@ -1850,6 +1902,9 @@
       </c>
       <c r="V30" t="n">
         <v>58460</v>
+      </c>
+      <c r="W30" t="n">
+        <v>54722</v>
       </c>
     </row>
     <row r="31">
@@ -1884,6 +1939,9 @@
       </c>
       <c r="V31" t="n">
         <v>60793</v>
+      </c>
+      <c r="W31" t="n">
+        <v>56894</v>
       </c>
     </row>
     <row r="32">
@@ -1916,6 +1974,9 @@
       </c>
       <c r="V32" t="n">
         <v>62978</v>
+      </c>
+      <c r="W32" t="n">
+        <v>59142</v>
       </c>
     </row>
     <row r="33">
@@ -1946,6 +2007,9 @@
       </c>
       <c r="V33" t="n">
         <v>64822</v>
+      </c>
+      <c r="W33" t="n">
+        <v>60574</v>
       </c>
     </row>
     <row r="34">
@@ -1975,6 +2039,38 @@
       <c r="V34" t="n">
         <v>66346</v>
       </c>
+      <c r="W34" t="n">
+        <v>61870</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35" t="n">
+        <v>62988</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2056,6 +2152,9 @@
       </c>
       <c r="V1" t="s">
         <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -2087,6 +2186,7 @@
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
+      <c r="W2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2119,6 +2219,7 @@
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
+      <c r="W3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2153,6 +2254,7 @@
       <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
+      <c r="W4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2189,6 +2291,7 @@
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
+      <c r="W5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2227,6 +2330,7 @@
       <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
+      <c r="W6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2267,6 +2371,7 @@
       <c r="T7"/>
       <c r="U7"/>
       <c r="V7"/>
+      <c r="W7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2309,6 +2414,7 @@
       <c r="T8"/>
       <c r="U8"/>
       <c r="V8"/>
+      <c r="W8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2353,6 +2459,7 @@
       <c r="T9"/>
       <c r="U9"/>
       <c r="V9"/>
+      <c r="W9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2399,6 +2506,7 @@
       <c r="T10"/>
       <c r="U10"/>
       <c r="V10"/>
+      <c r="W10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2447,6 +2555,7 @@
       <c r="T11"/>
       <c r="U11"/>
       <c r="V11"/>
+      <c r="W11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2497,6 +2606,7 @@
       <c r="T12"/>
       <c r="U12"/>
       <c r="V12"/>
+      <c r="W12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2549,6 +2659,7 @@
       <c r="T13"/>
       <c r="U13"/>
       <c r="V13"/>
+      <c r="W13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2603,6 +2714,7 @@
       <c r="T14"/>
       <c r="U14"/>
       <c r="V14"/>
+      <c r="W14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2659,6 +2771,7 @@
       <c r="T15"/>
       <c r="U15"/>
       <c r="V15"/>
+      <c r="W15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2715,6 +2828,7 @@
       <c r="T16"/>
       <c r="U16"/>
       <c r="V16"/>
+      <c r="W16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2771,6 +2885,7 @@
       <c r="T17"/>
       <c r="U17"/>
       <c r="V17"/>
+      <c r="W17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -2827,6 +2942,7 @@
       <c r="T18"/>
       <c r="U18"/>
       <c r="V18"/>
+      <c r="W18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -2883,6 +2999,7 @@
       </c>
       <c r="U19"/>
       <c r="V19"/>
+      <c r="W19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -2939,12 +3056,15 @@
         <v>2695</v>
       </c>
       <c r="V20"/>
+      <c r="W20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21"/>
+      <c r="B21" t="n">
+        <v>2586</v>
+      </c>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -2993,6 +3113,7 @@
       <c r="V21" t="n">
         <v>2672</v>
       </c>
+      <c r="W21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -3044,6 +3165,9 @@
       </c>
       <c r="V22" t="n">
         <v>2895</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2745</v>
       </c>
     </row>
     <row r="23">
@@ -3094,6 +3218,9 @@
       </c>
       <c r="V23" t="n">
         <v>2997</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2946</v>
       </c>
     </row>
     <row r="24">
@@ -3142,6 +3269,9 @@
       </c>
       <c r="V24" t="n">
         <v>3284</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3148</v>
       </c>
     </row>
     <row r="25">
@@ -3188,6 +3318,9 @@
       </c>
       <c r="V25" t="n">
         <v>3455</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3377</v>
       </c>
     </row>
     <row r="26">
@@ -3232,6 +3365,9 @@
       </c>
       <c r="V26" t="n">
         <v>3611</v>
+      </c>
+      <c r="W26" t="n">
+        <v>3612</v>
       </c>
     </row>
     <row r="27">
@@ -3274,6 +3410,9 @@
       </c>
       <c r="V27" t="n">
         <v>3757</v>
+      </c>
+      <c r="W27" t="n">
+        <v>3799</v>
       </c>
     </row>
     <row r="28">
@@ -3314,6 +3453,9 @@
       </c>
       <c r="V28" t="n">
         <v>3873</v>
+      </c>
+      <c r="W28" t="n">
+        <v>3960</v>
       </c>
     </row>
     <row r="29">
@@ -3352,6 +3494,9 @@
       </c>
       <c r="V29" t="n">
         <v>3947</v>
+      </c>
+      <c r="W29" t="n">
+        <v>4062</v>
       </c>
     </row>
     <row r="30">
@@ -3388,6 +3533,9 @@
       </c>
       <c r="V30" t="n">
         <v>4078</v>
+      </c>
+      <c r="W30" t="n">
+        <v>4235</v>
       </c>
     </row>
     <row r="31">
@@ -3422,6 +3570,9 @@
       </c>
       <c r="V31" t="n">
         <v>4181</v>
+      </c>
+      <c r="W31" t="n">
+        <v>4382</v>
       </c>
     </row>
     <row r="32">
@@ -3454,6 +3605,9 @@
       </c>
       <c r="V32" t="n">
         <v>4253</v>
+      </c>
+      <c r="W32" t="n">
+        <v>4537</v>
       </c>
     </row>
     <row r="33">
@@ -3484,6 +3638,9 @@
       </c>
       <c r="V33" t="n">
         <v>4344</v>
+      </c>
+      <c r="W33" t="n">
+        <v>4636</v>
       </c>
     </row>
     <row r="34">
@@ -3513,6 +3670,38 @@
       <c r="V34" t="n">
         <v>4403</v>
       </c>
+      <c r="W34" t="n">
+        <v>4727</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35" t="n">
+        <v>4799</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table_SP.xlsx
+++ b/forecasts_table_SP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-17</t>
   </si>
 </sst>
 </file>
@@ -525,6 +528,9 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -556,6 +562,7 @@
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
+      <c r="X2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -589,6 +596,7 @@
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
+      <c r="X3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -624,6 +632,7 @@
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
+      <c r="X4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -661,6 +670,7 @@
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
+      <c r="X5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -700,6 +710,7 @@
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
+      <c r="X6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -741,6 +752,7 @@
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
+      <c r="X7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -784,6 +796,7 @@
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8"/>
+      <c r="X8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -829,6 +842,7 @@
       <c r="U9"/>
       <c r="V9"/>
       <c r="W9"/>
+      <c r="X9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -876,6 +890,7 @@
       <c r="U10"/>
       <c r="V10"/>
       <c r="W10"/>
+      <c r="X10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -925,6 +940,7 @@
       <c r="U11"/>
       <c r="V11"/>
       <c r="W11"/>
+      <c r="X11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -976,6 +992,7 @@
       <c r="U12"/>
       <c r="V12"/>
       <c r="W12"/>
+      <c r="X12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1029,6 +1046,7 @@
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
+      <c r="X13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1084,6 +1102,7 @@
       <c r="U14"/>
       <c r="V14"/>
       <c r="W14"/>
+      <c r="X14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1141,6 +1160,7 @@
       <c r="U15"/>
       <c r="V15"/>
       <c r="W15"/>
+      <c r="X15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1198,6 +1218,7 @@
       <c r="U16"/>
       <c r="V16"/>
       <c r="W16"/>
+      <c r="X16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1255,6 +1276,7 @@
       <c r="U17"/>
       <c r="V17"/>
       <c r="W17"/>
+      <c r="X17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1312,6 +1334,7 @@
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
+      <c r="X18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1369,6 +1392,7 @@
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19"/>
+      <c r="X19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1426,6 +1450,7 @@
       </c>
       <c r="V20"/>
       <c r="W20"/>
+      <c r="X20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1483,12 +1508,15 @@
         <v>32739</v>
       </c>
       <c r="W21"/>
+      <c r="X21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22"/>
+      <c r="B22" t="n">
+        <v>31772</v>
+      </c>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -1538,6 +1566,7 @@
       <c r="W22" t="n">
         <v>33502</v>
       </c>
+      <c r="X22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1590,6 +1619,9 @@
       </c>
       <c r="W23" t="n">
         <v>36247</v>
+      </c>
+      <c r="X23" t="n">
+        <v>34080</v>
       </c>
     </row>
     <row r="24">
@@ -1641,6 +1673,9 @@
       </c>
       <c r="W24" t="n">
         <v>39220</v>
+      </c>
+      <c r="X24" t="n">
+        <v>36671</v>
       </c>
     </row>
     <row r="25">
@@ -1690,6 +1725,9 @@
       </c>
       <c r="W25" t="n">
         <v>42482</v>
+      </c>
+      <c r="X25" t="n">
+        <v>39145</v>
       </c>
     </row>
     <row r="26">
@@ -1737,6 +1775,9 @@
       </c>
       <c r="W26" t="n">
         <v>45829</v>
+      </c>
+      <c r="X26" t="n">
+        <v>41869</v>
       </c>
     </row>
     <row r="27">
@@ -1782,6 +1823,9 @@
       </c>
       <c r="W27" t="n">
         <v>48455</v>
+      </c>
+      <c r="X27" t="n">
+        <v>43896</v>
       </c>
     </row>
     <row r="28">
@@ -1825,6 +1869,9 @@
       </c>
       <c r="W28" t="n">
         <v>50727</v>
+      </c>
+      <c r="X28" t="n">
+        <v>45554</v>
       </c>
     </row>
     <row r="29">
@@ -1866,6 +1913,9 @@
       </c>
       <c r="W29" t="n">
         <v>52094</v>
+      </c>
+      <c r="X29" t="n">
+        <v>46117</v>
       </c>
     </row>
     <row r="30">
@@ -1905,6 +1955,9 @@
       </c>
       <c r="W30" t="n">
         <v>54722</v>
+      </c>
+      <c r="X30" t="n">
+        <v>48181</v>
       </c>
     </row>
     <row r="31">
@@ -1942,6 +1995,9 @@
       </c>
       <c r="W31" t="n">
         <v>56894</v>
+      </c>
+      <c r="X31" t="n">
+        <v>49874</v>
       </c>
     </row>
     <row r="32">
@@ -1977,6 +2033,9 @@
       </c>
       <c r="W32" t="n">
         <v>59142</v>
+      </c>
+      <c r="X32" t="n">
+        <v>51776</v>
       </c>
     </row>
     <row r="33">
@@ -2010,6 +2069,9 @@
       </c>
       <c r="W33" t="n">
         <v>60574</v>
+      </c>
+      <c r="X33" t="n">
+        <v>52880</v>
       </c>
     </row>
     <row r="34">
@@ -2041,6 +2103,9 @@
       </c>
       <c r="W34" t="n">
         <v>61870</v>
+      </c>
+      <c r="X34" t="n">
+        <v>53764</v>
       </c>
     </row>
     <row r="35">
@@ -2071,6 +2136,39 @@
       <c r="W35" t="n">
         <v>62988</v>
       </c>
+      <c r="X35" t="n">
+        <v>54424</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36" t="n">
+        <v>55435</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2155,6 +2253,9 @@
       </c>
       <c r="W1" t="s">
         <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -2187,6 +2288,7 @@
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
+      <c r="X2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2220,6 +2322,7 @@
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
+      <c r="X3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2255,6 +2358,7 @@
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
+      <c r="X4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2292,6 +2396,7 @@
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
+      <c r="X5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2331,6 +2436,7 @@
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
+      <c r="X6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2372,6 +2478,7 @@
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
+      <c r="X7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2415,6 +2522,7 @@
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8"/>
+      <c r="X8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2460,6 +2568,7 @@
       <c r="U9"/>
       <c r="V9"/>
       <c r="W9"/>
+      <c r="X9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2507,6 +2616,7 @@
       <c r="U10"/>
       <c r="V10"/>
       <c r="W10"/>
+      <c r="X10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2556,6 +2666,7 @@
       <c r="U11"/>
       <c r="V11"/>
       <c r="W11"/>
+      <c r="X11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2607,6 +2718,7 @@
       <c r="U12"/>
       <c r="V12"/>
       <c r="W12"/>
+      <c r="X12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2660,6 +2772,7 @@
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
+      <c r="X13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2715,6 +2828,7 @@
       <c r="U14"/>
       <c r="V14"/>
       <c r="W14"/>
+      <c r="X14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2772,6 +2886,7 @@
       <c r="U15"/>
       <c r="V15"/>
       <c r="W15"/>
+      <c r="X15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2829,6 +2944,7 @@
       <c r="U16"/>
       <c r="V16"/>
       <c r="W16"/>
+      <c r="X16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2886,6 +3002,7 @@
       <c r="U17"/>
       <c r="V17"/>
       <c r="W17"/>
+      <c r="X17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -2943,6 +3060,7 @@
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
+      <c r="X18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3000,6 +3118,7 @@
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19"/>
+      <c r="X19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3057,6 +3176,7 @@
       </c>
       <c r="V20"/>
       <c r="W20"/>
+      <c r="X20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3114,12 +3234,15 @@
         <v>2672</v>
       </c>
       <c r="W21"/>
+      <c r="X21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22"/>
+      <c r="B22" t="n">
+        <v>2627</v>
+      </c>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -3169,6 +3292,7 @@
       <c r="W22" t="n">
         <v>2745</v>
       </c>
+      <c r="X22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -3221,6 +3345,9 @@
       </c>
       <c r="W23" t="n">
         <v>2946</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2754</v>
       </c>
     </row>
     <row r="24">
@@ -3272,6 +3399,9 @@
       </c>
       <c r="W24" t="n">
         <v>3148</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2898</v>
       </c>
     </row>
     <row r="25">
@@ -3321,6 +3451,9 @@
       </c>
       <c r="W25" t="n">
         <v>3377</v>
+      </c>
+      <c r="X25" t="n">
+        <v>3042</v>
       </c>
     </row>
     <row r="26">
@@ -3368,6 +3501,9 @@
       </c>
       <c r="W26" t="n">
         <v>3612</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3177</v>
       </c>
     </row>
     <row r="27">
@@ -3413,6 +3549,9 @@
       </c>
       <c r="W27" t="n">
         <v>3799</v>
+      </c>
+      <c r="X27" t="n">
+        <v>3297</v>
       </c>
     </row>
     <row r="28">
@@ -3456,6 +3595,9 @@
       </c>
       <c r="W28" t="n">
         <v>3960</v>
+      </c>
+      <c r="X28" t="n">
+        <v>3404</v>
       </c>
     </row>
     <row r="29">
@@ -3497,6 +3639,9 @@
       </c>
       <c r="W29" t="n">
         <v>4062</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3495</v>
       </c>
     </row>
     <row r="30">
@@ -3536,6 +3681,9 @@
       </c>
       <c r="W30" t="n">
         <v>4235</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3581</v>
       </c>
     </row>
     <row r="31">
@@ -3573,6 +3721,9 @@
       </c>
       <c r="W31" t="n">
         <v>4382</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3662</v>
       </c>
     </row>
     <row r="32">
@@ -3608,6 +3759,9 @@
       </c>
       <c r="W32" t="n">
         <v>4537</v>
+      </c>
+      <c r="X32" t="n">
+        <v>3736</v>
       </c>
     </row>
     <row r="33">
@@ -3641,6 +3795,9 @@
       </c>
       <c r="W33" t="n">
         <v>4636</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3801</v>
       </c>
     </row>
     <row r="34">
@@ -3672,6 +3829,9 @@
       </c>
       <c r="W34" t="n">
         <v>4727</v>
+      </c>
+      <c r="X34" t="n">
+        <v>3856</v>
       </c>
     </row>
     <row r="35">
@@ -3702,6 +3862,39 @@
       <c r="W35" t="n">
         <v>4799</v>
       </c>
+      <c r="X35" t="n">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36" t="n">
+        <v>3963</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table_SP.xlsx
+++ b/forecasts_table_SP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-18</t>
   </si>
 </sst>
 </file>
@@ -531,6 +534,9 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -563,6 +569,7 @@
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
+      <c r="Y2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -597,6 +604,7 @@
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
+      <c r="Y3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -633,6 +641,7 @@
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
+      <c r="Y4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -671,6 +680,7 @@
       <c r="V5"/>
       <c r="W5"/>
       <c r="X5"/>
+      <c r="Y5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -711,6 +721,7 @@
       <c r="V6"/>
       <c r="W6"/>
       <c r="X6"/>
+      <c r="Y6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -753,6 +764,7 @@
       <c r="V7"/>
       <c r="W7"/>
       <c r="X7"/>
+      <c r="Y7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -797,6 +809,7 @@
       <c r="V8"/>
       <c r="W8"/>
       <c r="X8"/>
+      <c r="Y8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -843,6 +856,7 @@
       <c r="V9"/>
       <c r="W9"/>
       <c r="X9"/>
+      <c r="Y9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -891,6 +905,7 @@
       <c r="V10"/>
       <c r="W10"/>
       <c r="X10"/>
+      <c r="Y10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -941,6 +956,7 @@
       <c r="V11"/>
       <c r="W11"/>
       <c r="X11"/>
+      <c r="Y11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -993,6 +1009,7 @@
       <c r="V12"/>
       <c r="W12"/>
       <c r="X12"/>
+      <c r="Y12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1047,6 +1064,7 @@
       <c r="V13"/>
       <c r="W13"/>
       <c r="X13"/>
+      <c r="Y13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1103,6 +1121,7 @@
       <c r="V14"/>
       <c r="W14"/>
       <c r="X14"/>
+      <c r="Y14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1161,6 +1180,7 @@
       <c r="V15"/>
       <c r="W15"/>
       <c r="X15"/>
+      <c r="Y15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1219,6 +1239,7 @@
       <c r="V16"/>
       <c r="W16"/>
       <c r="X16"/>
+      <c r="Y16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1277,6 +1298,7 @@
       <c r="V17"/>
       <c r="W17"/>
       <c r="X17"/>
+      <c r="Y17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1335,6 +1357,7 @@
       <c r="V18"/>
       <c r="W18"/>
       <c r="X18"/>
+      <c r="Y18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1393,6 +1416,7 @@
       <c r="V19"/>
       <c r="W19"/>
       <c r="X19"/>
+      <c r="Y19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1451,6 +1475,7 @@
       <c r="V20"/>
       <c r="W20"/>
       <c r="X20"/>
+      <c r="Y20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1509,6 +1534,7 @@
       </c>
       <c r="W21"/>
       <c r="X21"/>
+      <c r="Y21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1567,12 +1593,15 @@
         <v>33502</v>
       </c>
       <c r="X22"/>
+      <c r="Y22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23"/>
+      <c r="B23" t="n">
+        <v>32187</v>
+      </c>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -1623,6 +1652,7 @@
       <c r="X23" t="n">
         <v>34080</v>
       </c>
+      <c r="Y23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1676,6 +1706,9 @@
       </c>
       <c r="X24" t="n">
         <v>36671</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>34788</v>
       </c>
     </row>
     <row r="25">
@@ -1728,6 +1761,9 @@
       </c>
       <c r="X25" t="n">
         <v>39145</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>36671</v>
       </c>
     </row>
     <row r="26">
@@ -1778,6 +1814,9 @@
       </c>
       <c r="X26" t="n">
         <v>41869</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>38246</v>
       </c>
     </row>
     <row r="27">
@@ -1826,6 +1865,9 @@
       </c>
       <c r="X27" t="n">
         <v>43896</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>39690</v>
       </c>
     </row>
     <row r="28">
@@ -1872,6 +1914,9 @@
       </c>
       <c r="X28" t="n">
         <v>45554</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>40862</v>
       </c>
     </row>
     <row r="29">
@@ -1916,6 +1961,9 @@
       </c>
       <c r="X29" t="n">
         <v>46117</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>41639</v>
       </c>
     </row>
     <row r="30">
@@ -1958,6 +2006,9 @@
       </c>
       <c r="X30" t="n">
         <v>48181</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>42754</v>
       </c>
     </row>
     <row r="31">
@@ -1998,6 +2049,9 @@
       </c>
       <c r="X31" t="n">
         <v>49874</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>43693</v>
       </c>
     </row>
     <row r="32">
@@ -2036,6 +2090,9 @@
       </c>
       <c r="X32" t="n">
         <v>51776</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>44332</v>
       </c>
     </row>
     <row r="33">
@@ -2072,6 +2129,9 @@
       </c>
       <c r="X33" t="n">
         <v>52880</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>45143</v>
       </c>
     </row>
     <row r="34">
@@ -2106,6 +2166,9 @@
       </c>
       <c r="X34" t="n">
         <v>53764</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>45707</v>
       </c>
     </row>
     <row r="35">
@@ -2138,6 +2201,9 @@
       </c>
       <c r="X35" t="n">
         <v>54424</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>46659</v>
       </c>
     </row>
     <row r="36">
@@ -2169,6 +2235,40 @@
       <c r="X36" t="n">
         <v>55435</v>
       </c>
+      <c r="Y36" t="n">
+        <v>47114</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37" t="n">
+        <v>47742</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2256,6 +2356,9 @@
       </c>
       <c r="X1" t="s">
         <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -2289,6 +2392,7 @@
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
+      <c r="Y2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2323,6 +2427,7 @@
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
+      <c r="Y3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2359,6 +2464,7 @@
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
+      <c r="Y4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2397,6 +2503,7 @@
       <c r="V5"/>
       <c r="W5"/>
       <c r="X5"/>
+      <c r="Y5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2437,6 +2544,7 @@
       <c r="V6"/>
       <c r="W6"/>
       <c r="X6"/>
+      <c r="Y6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2479,6 +2587,7 @@
       <c r="V7"/>
       <c r="W7"/>
       <c r="X7"/>
+      <c r="Y7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2523,6 +2632,7 @@
       <c r="V8"/>
       <c r="W8"/>
       <c r="X8"/>
+      <c r="Y8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2569,6 +2679,7 @@
       <c r="V9"/>
       <c r="W9"/>
       <c r="X9"/>
+      <c r="Y9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2617,6 +2728,7 @@
       <c r="V10"/>
       <c r="W10"/>
       <c r="X10"/>
+      <c r="Y10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2667,6 +2779,7 @@
       <c r="V11"/>
       <c r="W11"/>
       <c r="X11"/>
+      <c r="Y11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2719,6 +2832,7 @@
       <c r="V12"/>
       <c r="W12"/>
       <c r="X12"/>
+      <c r="Y12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2773,6 +2887,7 @@
       <c r="V13"/>
       <c r="W13"/>
       <c r="X13"/>
+      <c r="Y13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2829,6 +2944,7 @@
       <c r="V14"/>
       <c r="W14"/>
       <c r="X14"/>
+      <c r="Y14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2887,6 +3003,7 @@
       <c r="V15"/>
       <c r="W15"/>
       <c r="X15"/>
+      <c r="Y15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2945,6 +3062,7 @@
       <c r="V16"/>
       <c r="W16"/>
       <c r="X16"/>
+      <c r="Y16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3003,6 +3121,7 @@
       <c r="V17"/>
       <c r="W17"/>
       <c r="X17"/>
+      <c r="Y17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3061,6 +3180,7 @@
       <c r="V18"/>
       <c r="W18"/>
       <c r="X18"/>
+      <c r="Y18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3119,6 +3239,7 @@
       <c r="V19"/>
       <c r="W19"/>
       <c r="X19"/>
+      <c r="Y19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3177,6 +3298,7 @@
       <c r="V20"/>
       <c r="W20"/>
       <c r="X20"/>
+      <c r="Y20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3235,6 +3357,7 @@
       </c>
       <c r="W21"/>
       <c r="X21"/>
+      <c r="Y21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -3293,12 +3416,15 @@
         <v>2745</v>
       </c>
       <c r="X22"/>
+      <c r="Y22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23"/>
+      <c r="B23" t="n">
+        <v>2654</v>
+      </c>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -3349,6 +3475,7 @@
       <c r="X23" t="n">
         <v>2754</v>
       </c>
+      <c r="Y23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -3402,6 +3529,9 @@
       </c>
       <c r="X24" t="n">
         <v>2898</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2856</v>
       </c>
     </row>
     <row r="25">
@@ -3454,6 +3584,9 @@
       </c>
       <c r="X25" t="n">
         <v>3042</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2990</v>
       </c>
     </row>
     <row r="26">
@@ -3504,6 +3637,9 @@
       </c>
       <c r="X26" t="n">
         <v>3177</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3097</v>
       </c>
     </row>
     <row r="27">
@@ -3552,6 +3688,9 @@
       </c>
       <c r="X27" t="n">
         <v>3297</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>3194</v>
       </c>
     </row>
     <row r="28">
@@ -3598,6 +3737,9 @@
       </c>
       <c r="X28" t="n">
         <v>3404</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3270</v>
       </c>
     </row>
     <row r="29">
@@ -3642,6 +3784,9 @@
       </c>
       <c r="X29" t="n">
         <v>3495</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3314</v>
       </c>
     </row>
     <row r="30">
@@ -3684,6 +3829,9 @@
       </c>
       <c r="X30" t="n">
         <v>3581</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>3390</v>
       </c>
     </row>
     <row r="31">
@@ -3724,6 +3872,9 @@
       </c>
       <c r="X31" t="n">
         <v>3662</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>3452</v>
       </c>
     </row>
     <row r="32">
@@ -3762,6 +3913,9 @@
       </c>
       <c r="X32" t="n">
         <v>3736</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>3489</v>
       </c>
     </row>
     <row r="33">
@@ -3798,6 +3952,9 @@
       </c>
       <c r="X33" t="n">
         <v>3801</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>3543</v>
       </c>
     </row>
     <row r="34">
@@ -3832,6 +3989,9 @@
       </c>
       <c r="X34" t="n">
         <v>3856</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3577</v>
       </c>
     </row>
     <row r="35">
@@ -3864,6 +4024,9 @@
       </c>
       <c r="X35" t="n">
         <v>3914</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3644</v>
       </c>
     </row>
     <row r="36">
@@ -3895,6 +4058,40 @@
       <c r="X36" t="n">
         <v>3963</v>
       </c>
+      <c r="Y36" t="n">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37" t="n">
+        <v>3713</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table_SP.xlsx
+++ b/forecasts_table_SP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-19</t>
   </si>
 </sst>
 </file>
@@ -537,6 +540,9 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -570,6 +576,7 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
+      <c r="Z2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -605,6 +612,7 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
+      <c r="Z3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -642,6 +650,7 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
+      <c r="Z4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -681,6 +690,7 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
+      <c r="Z5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -722,6 +732,7 @@
       <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
+      <c r="Z6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -765,6 +776,7 @@
       <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
+      <c r="Z7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -810,6 +822,7 @@
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
+      <c r="Z8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -857,6 +870,7 @@
       <c r="W9"/>
       <c r="X9"/>
       <c r="Y9"/>
+      <c r="Z9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -906,6 +920,7 @@
       <c r="W10"/>
       <c r="X10"/>
       <c r="Y10"/>
+      <c r="Z10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -957,6 +972,7 @@
       <c r="W11"/>
       <c r="X11"/>
       <c r="Y11"/>
+      <c r="Z11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1010,6 +1026,7 @@
       <c r="W12"/>
       <c r="X12"/>
       <c r="Y12"/>
+      <c r="Z12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1065,6 +1082,7 @@
       <c r="W13"/>
       <c r="X13"/>
       <c r="Y13"/>
+      <c r="Z13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1122,6 +1140,7 @@
       <c r="W14"/>
       <c r="X14"/>
       <c r="Y14"/>
+      <c r="Z14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1181,6 +1200,7 @@
       <c r="W15"/>
       <c r="X15"/>
       <c r="Y15"/>
+      <c r="Z15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1240,6 +1260,7 @@
       <c r="W16"/>
       <c r="X16"/>
       <c r="Y16"/>
+      <c r="Z16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1299,6 +1320,7 @@
       <c r="W17"/>
       <c r="X17"/>
       <c r="Y17"/>
+      <c r="Z17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1358,6 +1380,7 @@
       <c r="W18"/>
       <c r="X18"/>
       <c r="Y18"/>
+      <c r="Z18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1417,6 +1440,7 @@
       <c r="W19"/>
       <c r="X19"/>
       <c r="Y19"/>
+      <c r="Z19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1476,6 +1500,7 @@
       <c r="W20"/>
       <c r="X20"/>
       <c r="Y20"/>
+      <c r="Z20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1535,6 +1560,7 @@
       <c r="W21"/>
       <c r="X21"/>
       <c r="Y21"/>
+      <c r="Z21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1594,6 +1620,7 @@
       </c>
       <c r="X22"/>
       <c r="Y22"/>
+      <c r="Z22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1653,12 +1680,15 @@
         <v>34080</v>
       </c>
       <c r="Y23"/>
+      <c r="Z23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24"/>
+      <c r="B24" t="n">
+        <v>34053</v>
+      </c>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -1710,6 +1740,7 @@
       <c r="Y24" t="n">
         <v>34788</v>
       </c>
+      <c r="Z24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1764,6 +1795,9 @@
       </c>
       <c r="Y25" t="n">
         <v>36671</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>36076</v>
       </c>
     </row>
     <row r="26">
@@ -1817,6 +1851,9 @@
       </c>
       <c r="Y26" t="n">
         <v>38246</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>37781</v>
       </c>
     </row>
     <row r="27">
@@ -1868,6 +1905,9 @@
       </c>
       <c r="Y27" t="n">
         <v>39690</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>39316</v>
       </c>
     </row>
     <row r="28">
@@ -1917,6 +1957,9 @@
       </c>
       <c r="Y28" t="n">
         <v>40862</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>40595</v>
       </c>
     </row>
     <row r="29">
@@ -1964,6 +2007,9 @@
       </c>
       <c r="Y29" t="n">
         <v>41639</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>41528</v>
       </c>
     </row>
     <row r="30">
@@ -2009,6 +2055,9 @@
       </c>
       <c r="Y30" t="n">
         <v>42754</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>42662</v>
       </c>
     </row>
     <row r="31">
@@ -2052,6 +2101,9 @@
       </c>
       <c r="Y31" t="n">
         <v>43693</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>43650</v>
       </c>
     </row>
     <row r="32">
@@ -2093,6 +2145,9 @@
       </c>
       <c r="Y32" t="n">
         <v>44332</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>44395</v>
       </c>
     </row>
     <row r="33">
@@ -2132,6 +2187,9 @@
       </c>
       <c r="Y33" t="n">
         <v>45143</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>45222</v>
       </c>
     </row>
     <row r="34">
@@ -2169,6 +2227,9 @@
       </c>
       <c r="Y34" t="n">
         <v>45707</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>45841</v>
       </c>
     </row>
     <row r="35">
@@ -2204,6 +2265,9 @@
       </c>
       <c r="Y35" t="n">
         <v>46659</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>46729</v>
       </c>
     </row>
     <row r="36">
@@ -2237,6 +2301,9 @@
       </c>
       <c r="Y36" t="n">
         <v>47114</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>47237</v>
       </c>
     </row>
     <row r="37">
@@ -2269,6 +2336,41 @@
       <c r="Y37" t="n">
         <v>47742</v>
       </c>
+      <c r="Z37" t="n">
+        <v>47859</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38" t="n">
+        <v>48455</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2359,6 +2461,9 @@
       </c>
       <c r="Y1" t="s">
         <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -2393,6 +2498,7 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
+      <c r="Z2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2428,6 +2534,7 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
+      <c r="Z3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2465,6 +2572,7 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
+      <c r="Z4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2504,6 +2612,7 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
+      <c r="Z5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2545,6 +2654,7 @@
       <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
+      <c r="Z6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2588,6 +2698,7 @@
       <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
+      <c r="Z7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2633,6 +2744,7 @@
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
+      <c r="Z8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2680,6 +2792,7 @@
       <c r="W9"/>
       <c r="X9"/>
       <c r="Y9"/>
+      <c r="Z9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2729,6 +2842,7 @@
       <c r="W10"/>
       <c r="X10"/>
       <c r="Y10"/>
+      <c r="Z10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2780,6 +2894,7 @@
       <c r="W11"/>
       <c r="X11"/>
       <c r="Y11"/>
+      <c r="Z11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2833,6 +2948,7 @@
       <c r="W12"/>
       <c r="X12"/>
       <c r="Y12"/>
+      <c r="Z12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2888,6 +3004,7 @@
       <c r="W13"/>
       <c r="X13"/>
       <c r="Y13"/>
+      <c r="Z13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2945,6 +3062,7 @@
       <c r="W14"/>
       <c r="X14"/>
       <c r="Y14"/>
+      <c r="Z14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3004,6 +3122,7 @@
       <c r="W15"/>
       <c r="X15"/>
       <c r="Y15"/>
+      <c r="Z15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3063,6 +3182,7 @@
       <c r="W16"/>
       <c r="X16"/>
       <c r="Y16"/>
+      <c r="Z16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3122,6 +3242,7 @@
       <c r="W17"/>
       <c r="X17"/>
       <c r="Y17"/>
+      <c r="Z17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3181,6 +3302,7 @@
       <c r="W18"/>
       <c r="X18"/>
       <c r="Y18"/>
+      <c r="Z18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3240,6 +3362,7 @@
       <c r="W19"/>
       <c r="X19"/>
       <c r="Y19"/>
+      <c r="Z19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3299,6 +3422,7 @@
       <c r="W20"/>
       <c r="X20"/>
       <c r="Y20"/>
+      <c r="Z20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3358,6 +3482,7 @@
       <c r="W21"/>
       <c r="X21"/>
       <c r="Y21"/>
+      <c r="Z21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -3417,6 +3542,7 @@
       </c>
       <c r="X22"/>
       <c r="Y22"/>
+      <c r="Z22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -3476,12 +3602,15 @@
         <v>2754</v>
       </c>
       <c r="Y23"/>
+      <c r="Z23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24"/>
+      <c r="B24" t="n">
+        <v>2851</v>
+      </c>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -3533,6 +3662,7 @@
       <c r="Y24" t="n">
         <v>2856</v>
       </c>
+      <c r="Z24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -3586,6 +3716,9 @@
         <v>3042</v>
       </c>
       <c r="Y25" t="n">
+        <v>2990</v>
+      </c>
+      <c r="Z25" t="n">
         <v>2990</v>
       </c>
     </row>
@@ -3640,6 +3773,9 @@
       </c>
       <c r="Y26" t="n">
         <v>3097</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>3110</v>
       </c>
     </row>
     <row r="27">
@@ -3691,6 +3827,9 @@
       </c>
       <c r="Y27" t="n">
         <v>3194</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>3218</v>
       </c>
     </row>
     <row r="28">
@@ -3740,6 +3879,9 @@
       </c>
       <c r="Y28" t="n">
         <v>3270</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>3304</v>
       </c>
     </row>
     <row r="29">
@@ -3787,6 +3929,9 @@
       </c>
       <c r="Y29" t="n">
         <v>3314</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>3360</v>
       </c>
     </row>
     <row r="30">
@@ -3832,6 +3977,9 @@
       </c>
       <c r="Y30" t="n">
         <v>3390</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>3444</v>
       </c>
     </row>
     <row r="31">
@@ -3875,6 +4023,9 @@
       </c>
       <c r="Y31" t="n">
         <v>3452</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>3515</v>
       </c>
     </row>
     <row r="32">
@@ -3916,6 +4067,9 @@
       </c>
       <c r="Y32" t="n">
         <v>3489</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>3565</v>
       </c>
     </row>
     <row r="33">
@@ -3955,6 +4109,9 @@
       </c>
       <c r="Y33" t="n">
         <v>3543</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>3627</v>
       </c>
     </row>
     <row r="34">
@@ -3992,6 +4149,9 @@
       </c>
       <c r="Y34" t="n">
         <v>3577</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>3668</v>
       </c>
     </row>
     <row r="35">
@@ -4027,6 +4187,9 @@
       </c>
       <c r="Y35" t="n">
         <v>3644</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>3739</v>
       </c>
     </row>
     <row r="36">
@@ -4060,6 +4223,9 @@
       </c>
       <c r="Y36" t="n">
         <v>3671</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>3771</v>
       </c>
     </row>
     <row r="37">
@@ -4092,6 +4258,41 @@
       <c r="Y37" t="n">
         <v>3713</v>
       </c>
+      <c r="Z37" t="n">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38" t="n">
+        <v>3863</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table_SP.xlsx
+++ b/forecasts_table_SP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-20</t>
   </si>
 </sst>
 </file>
@@ -543,6 +546,9 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -577,6 +583,7 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
+      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -613,6 +620,7 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
+      <c r="AA3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -651,6 +659,7 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
+      <c r="AA4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -691,6 +700,7 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
+      <c r="AA5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -733,6 +743,7 @@
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
+      <c r="AA6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -777,6 +788,7 @@
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7"/>
+      <c r="AA7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -823,6 +835,7 @@
       <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8"/>
+      <c r="AA8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -871,6 +884,7 @@
       <c r="X9"/>
       <c r="Y9"/>
       <c r="Z9"/>
+      <c r="AA9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -921,6 +935,7 @@
       <c r="X10"/>
       <c r="Y10"/>
       <c r="Z10"/>
+      <c r="AA10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -973,6 +988,7 @@
       <c r="X11"/>
       <c r="Y11"/>
       <c r="Z11"/>
+      <c r="AA11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1027,6 +1043,7 @@
       <c r="X12"/>
       <c r="Y12"/>
       <c r="Z12"/>
+      <c r="AA12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1083,6 +1100,7 @@
       <c r="X13"/>
       <c r="Y13"/>
       <c r="Z13"/>
+      <c r="AA13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1141,6 +1159,7 @@
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14"/>
+      <c r="AA14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1201,6 +1220,7 @@
       <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15"/>
+      <c r="AA15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1261,6 +1281,7 @@
       <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16"/>
+      <c r="AA16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1321,6 +1342,7 @@
       <c r="X17"/>
       <c r="Y17"/>
       <c r="Z17"/>
+      <c r="AA17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1381,6 +1403,7 @@
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18"/>
+      <c r="AA18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1441,6 +1464,7 @@
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19"/>
+      <c r="AA19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1501,6 +1525,7 @@
       <c r="X20"/>
       <c r="Y20"/>
       <c r="Z20"/>
+      <c r="AA20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1561,6 +1586,7 @@
       <c r="X21"/>
       <c r="Y21"/>
       <c r="Z21"/>
+      <c r="AA21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1621,6 +1647,7 @@
       <c r="X22"/>
       <c r="Y22"/>
       <c r="Z22"/>
+      <c r="AA22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1681,6 +1708,7 @@
       </c>
       <c r="Y23"/>
       <c r="Z23"/>
+      <c r="AA23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1741,12 +1769,15 @@
         <v>34788</v>
       </c>
       <c r="Z24"/>
+      <c r="AA24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25"/>
+      <c r="B25" t="n">
+        <v>37853</v>
+      </c>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
@@ -1799,6 +1830,7 @@
       <c r="Z25" t="n">
         <v>36076</v>
       </c>
+      <c r="AA25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1854,6 +1886,9 @@
       </c>
       <c r="Z26" t="n">
         <v>37781</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>40059</v>
       </c>
     </row>
     <row r="27">
@@ -1908,6 +1943,9 @@
       </c>
       <c r="Z27" t="n">
         <v>39316</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>42017</v>
       </c>
     </row>
     <row r="28">
@@ -1960,6 +1998,9 @@
       </c>
       <c r="Z28" t="n">
         <v>40595</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>43764</v>
       </c>
     </row>
     <row r="29">
@@ -2010,6 +2051,9 @@
       </c>
       <c r="Z29" t="n">
         <v>41528</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>45266</v>
       </c>
     </row>
     <row r="30">
@@ -2058,6 +2102,9 @@
       </c>
       <c r="Z30" t="n">
         <v>42662</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>46702</v>
       </c>
     </row>
     <row r="31">
@@ -2104,6 +2151,9 @@
       </c>
       <c r="Z31" t="n">
         <v>43650</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>48006</v>
       </c>
     </row>
     <row r="32">
@@ -2148,6 +2198,9 @@
       </c>
       <c r="Z32" t="n">
         <v>44395</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>49179</v>
       </c>
     </row>
     <row r="33">
@@ -2190,6 +2243,9 @@
       </c>
       <c r="Z33" t="n">
         <v>45222</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>50239</v>
       </c>
     </row>
     <row r="34">
@@ -2230,6 +2286,9 @@
       </c>
       <c r="Z34" t="n">
         <v>45841</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>51188</v>
       </c>
     </row>
     <row r="35">
@@ -2268,6 +2327,9 @@
       </c>
       <c r="Z35" t="n">
         <v>46729</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>52111</v>
       </c>
     </row>
     <row r="36">
@@ -2304,6 +2366,9 @@
       </c>
       <c r="Z36" t="n">
         <v>47237</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>52956</v>
       </c>
     </row>
     <row r="37">
@@ -2338,6 +2403,9 @@
       </c>
       <c r="Z37" t="n">
         <v>47859</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>53761</v>
       </c>
     </row>
     <row r="38">
@@ -2371,6 +2439,42 @@
       <c r="Z38" t="n">
         <v>48455</v>
       </c>
+      <c r="AA38" t="n">
+        <v>54569</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39" t="n">
+        <v>55466</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2464,6 +2568,9 @@
       </c>
       <c r="Z1" t="s">
         <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -2499,6 +2606,7 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
+      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2535,6 +2643,7 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
+      <c r="AA3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2573,6 +2682,7 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
+      <c r="AA4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2613,6 +2723,7 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
+      <c r="AA5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2655,6 +2766,7 @@
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
+      <c r="AA6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2699,6 +2811,7 @@
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7"/>
+      <c r="AA7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2745,6 +2858,7 @@
       <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8"/>
+      <c r="AA8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2793,6 +2907,7 @@
       <c r="X9"/>
       <c r="Y9"/>
       <c r="Z9"/>
+      <c r="AA9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2843,6 +2958,7 @@
       <c r="X10"/>
       <c r="Y10"/>
       <c r="Z10"/>
+      <c r="AA10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2895,6 +3011,7 @@
       <c r="X11"/>
       <c r="Y11"/>
       <c r="Z11"/>
+      <c r="AA11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2949,6 +3066,7 @@
       <c r="X12"/>
       <c r="Y12"/>
       <c r="Z12"/>
+      <c r="AA12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3005,6 +3123,7 @@
       <c r="X13"/>
       <c r="Y13"/>
       <c r="Z13"/>
+      <c r="AA13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3063,6 +3182,7 @@
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14"/>
+      <c r="AA14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3123,6 +3243,7 @@
       <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15"/>
+      <c r="AA15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3183,6 +3304,7 @@
       <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16"/>
+      <c r="AA16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3243,6 +3365,7 @@
       <c r="X17"/>
       <c r="Y17"/>
       <c r="Z17"/>
+      <c r="AA17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3303,6 +3426,7 @@
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18"/>
+      <c r="AA18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3363,6 +3487,7 @@
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19"/>
+      <c r="AA19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3423,6 +3548,7 @@
       <c r="X20"/>
       <c r="Y20"/>
       <c r="Z20"/>
+      <c r="AA20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3483,6 +3609,7 @@
       <c r="X21"/>
       <c r="Y21"/>
       <c r="Z21"/>
+      <c r="AA21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -3543,6 +3670,7 @@
       <c r="X22"/>
       <c r="Y22"/>
       <c r="Z22"/>
+      <c r="AA22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -3603,6 +3731,7 @@
       </c>
       <c r="Y23"/>
       <c r="Z23"/>
+      <c r="AA23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -3663,12 +3792,15 @@
         <v>2856</v>
       </c>
       <c r="Z24"/>
+      <c r="AA24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25"/>
+      <c r="B25" t="n">
+        <v>3045</v>
+      </c>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
@@ -3721,6 +3853,7 @@
       <c r="Z25" t="n">
         <v>2990</v>
       </c>
+      <c r="AA25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -3776,6 +3909,9 @@
       </c>
       <c r="Z26" t="n">
         <v>3110</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>3157</v>
       </c>
     </row>
     <row r="27">
@@ -3830,6 +3966,9 @@
       </c>
       <c r="Z27" t="n">
         <v>3218</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>3245</v>
       </c>
     </row>
     <row r="28">
@@ -3882,6 +4021,9 @@
       </c>
       <c r="Z28" t="n">
         <v>3304</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>3326</v>
       </c>
     </row>
     <row r="29">
@@ -3932,6 +4074,9 @@
       </c>
       <c r="Z29" t="n">
         <v>3360</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>3392</v>
       </c>
     </row>
     <row r="30">
@@ -3980,6 +4125,9 @@
       </c>
       <c r="Z30" t="n">
         <v>3444</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>3467</v>
       </c>
     </row>
     <row r="31">
@@ -4026,6 +4174,9 @@
       </c>
       <c r="Z31" t="n">
         <v>3515</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>3537</v>
       </c>
     </row>
     <row r="32">
@@ -4070,6 +4221,9 @@
       </c>
       <c r="Z32" t="n">
         <v>3565</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>3595</v>
       </c>
     </row>
     <row r="33">
@@ -4112,6 +4266,9 @@
       </c>
       <c r="Z33" t="n">
         <v>3627</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>3650</v>
       </c>
     </row>
     <row r="34">
@@ -4152,6 +4309,9 @@
       </c>
       <c r="Z34" t="n">
         <v>3668</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>3694</v>
       </c>
     </row>
     <row r="35">
@@ -4190,6 +4350,9 @@
       </c>
       <c r="Z35" t="n">
         <v>3739</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>3751</v>
       </c>
     </row>
     <row r="36">
@@ -4226,6 +4389,9 @@
       </c>
       <c r="Z36" t="n">
         <v>3771</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>3788</v>
       </c>
     </row>
     <row r="37">
@@ -4260,6 +4426,9 @@
       </c>
       <c r="Z37" t="n">
         <v>3817</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>3831</v>
       </c>
     </row>
     <row r="38">
@@ -4293,6 +4462,42 @@
       <c r="Z38" t="n">
         <v>3863</v>
       </c>
+      <c r="AA38" t="n">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39" t="n">
+        <v>3920</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table_SP.xlsx
+++ b/forecasts_table_SP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-21</t>
   </si>
 </sst>
 </file>
@@ -549,6 +552,9 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -584,6 +590,7 @@
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
+      <c r="AB2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -621,6 +628,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
+      <c r="AB3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -660,6 +668,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
+      <c r="AB4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -701,6 +710,7 @@
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
+      <c r="AB5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -744,6 +754,7 @@
       <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
+      <c r="AB6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -789,6 +800,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7"/>
+      <c r="AB7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -836,6 +848,7 @@
       <c r="Y8"/>
       <c r="Z8"/>
       <c r="AA8"/>
+      <c r="AB8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -885,6 +898,7 @@
       <c r="Y9"/>
       <c r="Z9"/>
       <c r="AA9"/>
+      <c r="AB9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -936,6 +950,7 @@
       <c r="Y10"/>
       <c r="Z10"/>
       <c r="AA10"/>
+      <c r="AB10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -989,6 +1004,7 @@
       <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11"/>
+      <c r="AB11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1044,6 +1060,7 @@
       <c r="Y12"/>
       <c r="Z12"/>
       <c r="AA12"/>
+      <c r="AB12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1101,6 +1118,7 @@
       <c r="Y13"/>
       <c r="Z13"/>
       <c r="AA13"/>
+      <c r="AB13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1160,6 +1178,7 @@
       <c r="Y14"/>
       <c r="Z14"/>
       <c r="AA14"/>
+      <c r="AB14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1221,6 +1240,7 @@
       <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15"/>
+      <c r="AB15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1282,6 +1302,7 @@
       <c r="Y16"/>
       <c r="Z16"/>
       <c r="AA16"/>
+      <c r="AB16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1343,6 +1364,7 @@
       <c r="Y17"/>
       <c r="Z17"/>
       <c r="AA17"/>
+      <c r="AB17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1404,6 +1426,7 @@
       <c r="Y18"/>
       <c r="Z18"/>
       <c r="AA18"/>
+      <c r="AB18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1465,6 +1488,7 @@
       <c r="Y19"/>
       <c r="Z19"/>
       <c r="AA19"/>
+      <c r="AB19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1526,6 +1550,7 @@
       <c r="Y20"/>
       <c r="Z20"/>
       <c r="AA20"/>
+      <c r="AB20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1587,6 +1612,7 @@
       <c r="Y21"/>
       <c r="Z21"/>
       <c r="AA21"/>
+      <c r="AB21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1648,6 +1674,7 @@
       <c r="Y22"/>
       <c r="Z22"/>
       <c r="AA22"/>
+      <c r="AB22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1709,6 +1736,7 @@
       <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23"/>
+      <c r="AB23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1770,6 +1798,7 @@
       </c>
       <c r="Z24"/>
       <c r="AA24"/>
+      <c r="AB24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1831,12 +1860,15 @@
         <v>36076</v>
       </c>
       <c r="AA25"/>
+      <c r="AB25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26"/>
+      <c r="B26" t="n">
+        <v>39928</v>
+      </c>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -1890,6 +1922,7 @@
       <c r="AA26" t="n">
         <v>40059</v>
       </c>
+      <c r="AB26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1946,6 +1979,9 @@
       </c>
       <c r="AA27" t="n">
         <v>42017</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>41958</v>
       </c>
     </row>
     <row r="28">
@@ -2001,6 +2037,9 @@
       </c>
       <c r="AA28" t="n">
         <v>43764</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>43702</v>
       </c>
     </row>
     <row r="29">
@@ -2054,6 +2093,9 @@
       </c>
       <c r="AA29" t="n">
         <v>45266</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>45149</v>
       </c>
     </row>
     <row r="30">
@@ -2105,6 +2147,9 @@
       </c>
       <c r="AA30" t="n">
         <v>46702</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>46607</v>
       </c>
     </row>
     <row r="31">
@@ -2154,6 +2199,9 @@
       </c>
       <c r="AA31" t="n">
         <v>48006</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>47903</v>
       </c>
     </row>
     <row r="32">
@@ -2201,6 +2249,9 @@
       </c>
       <c r="AA32" t="n">
         <v>49179</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>49015</v>
       </c>
     </row>
     <row r="33">
@@ -2246,6 +2297,9 @@
       </c>
       <c r="AA33" t="n">
         <v>50239</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>50076</v>
       </c>
     </row>
     <row r="34">
@@ -2289,6 +2343,9 @@
       </c>
       <c r="AA34" t="n">
         <v>51188</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>51002</v>
       </c>
     </row>
     <row r="35">
@@ -2330,6 +2387,9 @@
       </c>
       <c r="AA35" t="n">
         <v>52111</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>51993</v>
       </c>
     </row>
     <row r="36">
@@ -2369,6 +2429,9 @@
       </c>
       <c r="AA36" t="n">
         <v>52956</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>52806</v>
       </c>
     </row>
     <row r="37">
@@ -2406,6 +2469,9 @@
       </c>
       <c r="AA37" t="n">
         <v>53761</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>53628</v>
       </c>
     </row>
     <row r="38">
@@ -2441,6 +2507,9 @@
       </c>
       <c r="AA38" t="n">
         <v>54569</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>54429</v>
       </c>
     </row>
     <row r="39">
@@ -2475,6 +2544,43 @@
       <c r="AA39" t="n">
         <v>55466</v>
       </c>
+      <c r="AB39" t="n">
+        <v>55314</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40" t="n">
+        <v>56211</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2571,6 +2677,9 @@
       </c>
       <c r="AA1" t="s">
         <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -2607,6 +2716,7 @@
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
+      <c r="AB2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2644,6 +2754,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
+      <c r="AB3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2683,6 +2794,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
+      <c r="AB4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2724,6 +2836,7 @@
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
+      <c r="AB5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2767,6 +2880,7 @@
       <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
+      <c r="AB6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2812,6 +2926,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7"/>
+      <c r="AB7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2859,6 +2974,7 @@
       <c r="Y8"/>
       <c r="Z8"/>
       <c r="AA8"/>
+      <c r="AB8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2908,6 +3024,7 @@
       <c r="Y9"/>
       <c r="Z9"/>
       <c r="AA9"/>
+      <c r="AB9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2959,6 +3076,7 @@
       <c r="Y10"/>
       <c r="Z10"/>
       <c r="AA10"/>
+      <c r="AB10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3012,6 +3130,7 @@
       <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11"/>
+      <c r="AB11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3067,6 +3186,7 @@
       <c r="Y12"/>
       <c r="Z12"/>
       <c r="AA12"/>
+      <c r="AB12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3124,6 +3244,7 @@
       <c r="Y13"/>
       <c r="Z13"/>
       <c r="AA13"/>
+      <c r="AB13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3183,6 +3304,7 @@
       <c r="Y14"/>
       <c r="Z14"/>
       <c r="AA14"/>
+      <c r="AB14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3244,6 +3366,7 @@
       <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15"/>
+      <c r="AB15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3305,6 +3428,7 @@
       <c r="Y16"/>
       <c r="Z16"/>
       <c r="AA16"/>
+      <c r="AB16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3366,6 +3490,7 @@
       <c r="Y17"/>
       <c r="Z17"/>
       <c r="AA17"/>
+      <c r="AB17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3427,6 +3552,7 @@
       <c r="Y18"/>
       <c r="Z18"/>
       <c r="AA18"/>
+      <c r="AB18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3488,6 +3614,7 @@
       <c r="Y19"/>
       <c r="Z19"/>
       <c r="AA19"/>
+      <c r="AB19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3549,6 +3676,7 @@
       <c r="Y20"/>
       <c r="Z20"/>
       <c r="AA20"/>
+      <c r="AB20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3610,6 +3738,7 @@
       <c r="Y21"/>
       <c r="Z21"/>
       <c r="AA21"/>
+      <c r="AB21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -3671,6 +3800,7 @@
       <c r="Y22"/>
       <c r="Z22"/>
       <c r="AA22"/>
+      <c r="AB22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -3732,6 +3862,7 @@
       <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23"/>
+      <c r="AB23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -3793,6 +3924,7 @@
       </c>
       <c r="Z24"/>
       <c r="AA24"/>
+      <c r="AB24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -3854,12 +3986,15 @@
         <v>2990</v>
       </c>
       <c r="AA25"/>
+      <c r="AB25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26"/>
+      <c r="B26" t="n">
+        <v>3206</v>
+      </c>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -3911,8 +4046,9 @@
         <v>3110</v>
       </c>
       <c r="AA26" t="n">
-        <v>3157</v>
-      </c>
+        <v>3153</v>
+      </c>
+      <c r="AB26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -3968,7 +4104,10 @@
         <v>3218</v>
       </c>
       <c r="AA27" t="n">
-        <v>3245</v>
+        <v>3237</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>3320</v>
       </c>
     </row>
     <row r="28">
@@ -4023,7 +4162,10 @@
         <v>3304</v>
       </c>
       <c r="AA28" t="n">
-        <v>3326</v>
+        <v>3314</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>3427</v>
       </c>
     </row>
     <row r="29">
@@ -4076,7 +4218,10 @@
         <v>3360</v>
       </c>
       <c r="AA29" t="n">
-        <v>3392</v>
+        <v>3377</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>3524</v>
       </c>
     </row>
     <row r="30">
@@ -4127,7 +4272,10 @@
         <v>3444</v>
       </c>
       <c r="AA30" t="n">
-        <v>3467</v>
+        <v>3449</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>3613</v>
       </c>
     </row>
     <row r="31">
@@ -4176,7 +4324,10 @@
         <v>3515</v>
       </c>
       <c r="AA31" t="n">
-        <v>3537</v>
+        <v>3517</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>3696</v>
       </c>
     </row>
     <row r="32">
@@ -4223,7 +4374,10 @@
         <v>3565</v>
       </c>
       <c r="AA32" t="n">
-        <v>3595</v>
+        <v>3574</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>3773</v>
       </c>
     </row>
     <row r="33">
@@ -4268,7 +4422,10 @@
         <v>3627</v>
       </c>
       <c r="AA33" t="n">
-        <v>3650</v>
+        <v>3627</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>3840</v>
       </c>
     </row>
     <row r="34">
@@ -4311,7 +4468,10 @@
         <v>3668</v>
       </c>
       <c r="AA34" t="n">
-        <v>3694</v>
+        <v>3669</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>3901</v>
       </c>
     </row>
     <row r="35">
@@ -4352,7 +4512,10 @@
         <v>3739</v>
       </c>
       <c r="AA35" t="n">
-        <v>3751</v>
+        <v>3723</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>3957</v>
       </c>
     </row>
     <row r="36">
@@ -4391,7 +4554,10 @@
         <v>3771</v>
       </c>
       <c r="AA36" t="n">
-        <v>3788</v>
+        <v>3758</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>4017</v>
       </c>
     </row>
     <row r="37">
@@ -4428,7 +4594,10 @@
         <v>3817</v>
       </c>
       <c r="AA37" t="n">
-        <v>3831</v>
+        <v>3799</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>4070</v>
       </c>
     </row>
     <row r="38">
@@ -4463,7 +4632,10 @@
         <v>3863</v>
       </c>
       <c r="AA38" t="n">
-        <v>3874</v>
+        <v>3841</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>4126</v>
       </c>
     </row>
     <row r="39">
@@ -4496,7 +4668,44 @@
       <c r="Y39"/>
       <c r="Z39"/>
       <c r="AA39" t="n">
-        <v>3920</v>
+        <v>3885</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40" t="n">
+        <v>4241</v>
       </c>
     </row>
   </sheetData>

--- a/forecasts_table_SP.xlsx
+++ b/forecasts_table_SP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-23</t>
   </si>
 </sst>
 </file>
@@ -555,6 +561,12 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -591,6 +603,8 @@
       <c r="Z2"/>
       <c r="AA2"/>
       <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -629,6 +643,8 @@
       <c r="Z3"/>
       <c r="AA3"/>
       <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -669,6 +685,8 @@
       <c r="Z4"/>
       <c r="AA4"/>
       <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -711,6 +729,8 @@
       <c r="Z5"/>
       <c r="AA5"/>
       <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -755,6 +775,8 @@
       <c r="Z6"/>
       <c r="AA6"/>
       <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -801,6 +823,8 @@
       <c r="Z7"/>
       <c r="AA7"/>
       <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -849,6 +873,8 @@
       <c r="Z8"/>
       <c r="AA8"/>
       <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -899,6 +925,8 @@
       <c r="Z9"/>
       <c r="AA9"/>
       <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -951,6 +979,8 @@
       <c r="Z10"/>
       <c r="AA10"/>
       <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1005,6 +1035,8 @@
       <c r="Z11"/>
       <c r="AA11"/>
       <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1061,6 +1093,8 @@
       <c r="Z12"/>
       <c r="AA12"/>
       <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1119,6 +1153,8 @@
       <c r="Z13"/>
       <c r="AA13"/>
       <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1179,6 +1215,8 @@
       <c r="Z14"/>
       <c r="AA14"/>
       <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1241,6 +1279,8 @@
       <c r="Z15"/>
       <c r="AA15"/>
       <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1303,6 +1343,8 @@
       <c r="Z16"/>
       <c r="AA16"/>
       <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1365,6 +1407,8 @@
       <c r="Z17"/>
       <c r="AA17"/>
       <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1427,6 +1471,8 @@
       <c r="Z18"/>
       <c r="AA18"/>
       <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1489,6 +1535,8 @@
       <c r="Z19"/>
       <c r="AA19"/>
       <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1551,6 +1599,8 @@
       <c r="Z20"/>
       <c r="AA20"/>
       <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1613,6 +1663,8 @@
       <c r="Z21"/>
       <c r="AA21"/>
       <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1675,6 +1727,8 @@
       <c r="Z22"/>
       <c r="AA22"/>
       <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1737,6 +1791,8 @@
       <c r="Z23"/>
       <c r="AA23"/>
       <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1799,6 +1855,8 @@
       <c r="Z24"/>
       <c r="AA24"/>
       <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1861,6 +1919,8 @@
       </c>
       <c r="AA25"/>
       <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1923,12 +1983,16 @@
         <v>40059</v>
       </c>
       <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27"/>
+      <c r="B27" t="n">
+        <v>41830</v>
+      </c>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -1983,12 +2047,16 @@
       <c r="AB27" t="n">
         <v>41958</v>
       </c>
+      <c r="AC27"/>
+      <c r="AD27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28"/>
+      <c r="B28" t="n">
+        <v>44411</v>
+      </c>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
@@ -2041,6 +2109,10 @@
       <c r="AB28" t="n">
         <v>43702</v>
       </c>
+      <c r="AC28" t="n">
+        <v>43290</v>
+      </c>
+      <c r="AD28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2096,6 +2168,12 @@
       </c>
       <c r="AB29" t="n">
         <v>45149</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>44416</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>45560</v>
       </c>
     </row>
     <row r="30">
@@ -2150,6 +2228,12 @@
       </c>
       <c r="AB30" t="n">
         <v>46607</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>45866</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>46911</v>
       </c>
     </row>
     <row r="31">
@@ -2202,6 +2286,12 @@
       </c>
       <c r="AB31" t="n">
         <v>47903</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>47085</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>48155</v>
       </c>
     </row>
     <row r="32">
@@ -2252,6 +2342,12 @@
       </c>
       <c r="AB32" t="n">
         <v>49015</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>48019</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>49204</v>
       </c>
     </row>
     <row r="33">
@@ -2300,6 +2396,12 @@
       </c>
       <c r="AB33" t="n">
         <v>50076</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>49150</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>50318</v>
       </c>
     </row>
     <row r="34">
@@ -2346,6 +2448,12 @@
       </c>
       <c r="AB34" t="n">
         <v>51002</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>49914</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>51224</v>
       </c>
     </row>
     <row r="35">
@@ -2390,6 +2498,12 @@
       </c>
       <c r="AB35" t="n">
         <v>51993</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>51096</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>52414</v>
       </c>
     </row>
     <row r="36">
@@ -2432,6 +2546,12 @@
       </c>
       <c r="AB36" t="n">
         <v>52806</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>51807</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>53194</v>
       </c>
     </row>
     <row r="37">
@@ -2472,6 +2592,12 @@
       </c>
       <c r="AB37" t="n">
         <v>53628</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>52708</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>54095</v>
       </c>
     </row>
     <row r="38">
@@ -2510,6 +2636,12 @@
       </c>
       <c r="AB38" t="n">
         <v>54429</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>53546</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>54954</v>
       </c>
     </row>
     <row r="39">
@@ -2546,6 +2678,12 @@
       </c>
       <c r="AB39" t="n">
         <v>55314</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>54480</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>55870</v>
       </c>
     </row>
     <row r="40">
@@ -2581,6 +2719,86 @@
       <c r="AB40" t="n">
         <v>56211</v>
       </c>
+      <c r="AC40" t="n">
+        <v>55565</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>56886</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41" t="n">
+        <v>56500</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>57843</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42" t="n">
+        <v>58745</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2680,6 +2898,12 @@
       </c>
       <c r="AB1" t="s">
         <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -2717,6 +2941,8 @@
       <c r="Z2"/>
       <c r="AA2"/>
       <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2755,6 +2981,8 @@
       <c r="Z3"/>
       <c r="AA3"/>
       <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2795,6 +3023,8 @@
       <c r="Z4"/>
       <c r="AA4"/>
       <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2837,6 +3067,8 @@
       <c r="Z5"/>
       <c r="AA5"/>
       <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2881,6 +3113,8 @@
       <c r="Z6"/>
       <c r="AA6"/>
       <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2927,6 +3161,8 @@
       <c r="Z7"/>
       <c r="AA7"/>
       <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2975,6 +3211,8 @@
       <c r="Z8"/>
       <c r="AA8"/>
       <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3025,6 +3263,8 @@
       <c r="Z9"/>
       <c r="AA9"/>
       <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3077,6 +3317,8 @@
       <c r="Z10"/>
       <c r="AA10"/>
       <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3131,6 +3373,8 @@
       <c r="Z11"/>
       <c r="AA11"/>
       <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3187,6 +3431,8 @@
       <c r="Z12"/>
       <c r="AA12"/>
       <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3245,6 +3491,8 @@
       <c r="Z13"/>
       <c r="AA13"/>
       <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3305,6 +3553,8 @@
       <c r="Z14"/>
       <c r="AA14"/>
       <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3367,6 +3617,8 @@
       <c r="Z15"/>
       <c r="AA15"/>
       <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3429,6 +3681,8 @@
       <c r="Z16"/>
       <c r="AA16"/>
       <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3491,6 +3745,8 @@
       <c r="Z17"/>
       <c r="AA17"/>
       <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3553,6 +3809,8 @@
       <c r="Z18"/>
       <c r="AA18"/>
       <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3615,6 +3873,8 @@
       <c r="Z19"/>
       <c r="AA19"/>
       <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3677,6 +3937,8 @@
       <c r="Z20"/>
       <c r="AA20"/>
       <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3739,6 +4001,8 @@
       <c r="Z21"/>
       <c r="AA21"/>
       <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -3801,6 +4065,8 @@
       <c r="Z22"/>
       <c r="AA22"/>
       <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -3863,6 +4129,8 @@
       <c r="Z23"/>
       <c r="AA23"/>
       <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -3925,6 +4193,8 @@
       <c r="Z24"/>
       <c r="AA24"/>
       <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -3987,6 +4257,8 @@
       </c>
       <c r="AA25"/>
       <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -4049,12 +4321,16 @@
         <v>3153</v>
       </c>
       <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27"/>
+      <c r="B27" t="n">
+        <v>3416</v>
+      </c>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -4109,12 +4385,16 @@
       <c r="AB27" t="n">
         <v>3320</v>
       </c>
+      <c r="AC27"/>
+      <c r="AD27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28"/>
+      <c r="B28" t="n">
+        <v>3608</v>
+      </c>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
@@ -4167,6 +4447,10 @@
       <c r="AB28" t="n">
         <v>3427</v>
       </c>
+      <c r="AC28" t="n">
+        <v>3504</v>
+      </c>
+      <c r="AD28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -4222,6 +4506,12 @@
       </c>
       <c r="AB29" t="n">
         <v>3524</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>3618</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>3684</v>
       </c>
     </row>
     <row r="30">
@@ -4276,6 +4566,12 @@
       </c>
       <c r="AB30" t="n">
         <v>3613</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>3722</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>3781</v>
       </c>
     </row>
     <row r="31">
@@ -4328,6 +4624,12 @@
       </c>
       <c r="AB31" t="n">
         <v>3696</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>3819</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3877</v>
       </c>
     </row>
     <row r="32">
@@ -4378,6 +4680,12 @@
       </c>
       <c r="AB32" t="n">
         <v>3773</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>3906</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3963</v>
       </c>
     </row>
     <row r="33">
@@ -4426,6 +4734,12 @@
       </c>
       <c r="AB33" t="n">
         <v>3840</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>3985</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>4044</v>
       </c>
     </row>
     <row r="34">
@@ -4472,6 +4786,12 @@
       </c>
       <c r="AB34" t="n">
         <v>3901</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>4058</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>4114</v>
       </c>
     </row>
     <row r="35">
@@ -4516,6 +4836,12 @@
       </c>
       <c r="AB35" t="n">
         <v>3957</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>4126</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>4183</v>
       </c>
     </row>
     <row r="36">
@@ -4558,6 +4884,12 @@
       </c>
       <c r="AB36" t="n">
         <v>4017</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>4199</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>4251</v>
       </c>
     </row>
     <row r="37">
@@ -4598,6 +4930,12 @@
       </c>
       <c r="AB37" t="n">
         <v>4070</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>4262</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>4311</v>
       </c>
     </row>
     <row r="38">
@@ -4636,6 +4974,12 @@
       </c>
       <c r="AB38" t="n">
         <v>4126</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>4327</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>4371</v>
       </c>
     </row>
     <row r="39">
@@ -4672,6 +5016,12 @@
       </c>
       <c r="AB39" t="n">
         <v>4185</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>4395</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>4431</v>
       </c>
     </row>
     <row r="40">
@@ -4707,6 +5057,86 @@
       <c r="AB40" t="n">
         <v>4241</v>
       </c>
+      <c r="AC40" t="n">
+        <v>4460</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41" t="n">
+        <v>4520</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42" t="n">
+        <v>4612</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table_SP.xlsx
+++ b/forecasts_table_SP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-24</t>
   </si>
 </sst>
 </file>
@@ -567,6 +570,9 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -605,6 +611,7 @@
       <c r="AB2"/>
       <c r="AC2"/>
       <c r="AD2"/>
+      <c r="AE2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -645,6 +652,7 @@
       <c r="AB3"/>
       <c r="AC3"/>
       <c r="AD3"/>
+      <c r="AE3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -687,6 +695,7 @@
       <c r="AB4"/>
       <c r="AC4"/>
       <c r="AD4"/>
+      <c r="AE4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -731,6 +740,7 @@
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
+      <c r="AE5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -777,6 +787,7 @@
       <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
+      <c r="AE6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -825,6 +836,7 @@
       <c r="AB7"/>
       <c r="AC7"/>
       <c r="AD7"/>
+      <c r="AE7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -875,6 +887,7 @@
       <c r="AB8"/>
       <c r="AC8"/>
       <c r="AD8"/>
+      <c r="AE8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -927,6 +940,7 @@
       <c r="AB9"/>
       <c r="AC9"/>
       <c r="AD9"/>
+      <c r="AE9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -981,6 +995,7 @@
       <c r="AB10"/>
       <c r="AC10"/>
       <c r="AD10"/>
+      <c r="AE10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1037,6 +1052,7 @@
       <c r="AB11"/>
       <c r="AC11"/>
       <c r="AD11"/>
+      <c r="AE11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1095,6 +1111,7 @@
       <c r="AB12"/>
       <c r="AC12"/>
       <c r="AD12"/>
+      <c r="AE12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1155,6 +1172,7 @@
       <c r="AB13"/>
       <c r="AC13"/>
       <c r="AD13"/>
+      <c r="AE13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1217,6 +1235,7 @@
       <c r="AB14"/>
       <c r="AC14"/>
       <c r="AD14"/>
+      <c r="AE14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1281,6 +1300,7 @@
       <c r="AB15"/>
       <c r="AC15"/>
       <c r="AD15"/>
+      <c r="AE15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1345,6 +1365,7 @@
       <c r="AB16"/>
       <c r="AC16"/>
       <c r="AD16"/>
+      <c r="AE16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1409,6 +1430,7 @@
       <c r="AB17"/>
       <c r="AC17"/>
       <c r="AD17"/>
+      <c r="AE17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1473,6 +1495,7 @@
       <c r="AB18"/>
       <c r="AC18"/>
       <c r="AD18"/>
+      <c r="AE18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1537,6 +1560,7 @@
       <c r="AB19"/>
       <c r="AC19"/>
       <c r="AD19"/>
+      <c r="AE19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1601,6 +1625,7 @@
       <c r="AB20"/>
       <c r="AC20"/>
       <c r="AD20"/>
+      <c r="AE20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1665,6 +1690,7 @@
       <c r="AB21"/>
       <c r="AC21"/>
       <c r="AD21"/>
+      <c r="AE21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1729,6 +1755,7 @@
       <c r="AB22"/>
       <c r="AC22"/>
       <c r="AD22"/>
+      <c r="AE22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1793,6 +1820,7 @@
       <c r="AB23"/>
       <c r="AC23"/>
       <c r="AD23"/>
+      <c r="AE23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1857,6 +1885,7 @@
       <c r="AB24"/>
       <c r="AC24"/>
       <c r="AD24"/>
+      <c r="AE24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1921,6 +1950,7 @@
       <c r="AB25"/>
       <c r="AC25"/>
       <c r="AD25"/>
+      <c r="AE25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1985,6 +2015,7 @@
       <c r="AB26"/>
       <c r="AC26"/>
       <c r="AD26"/>
+      <c r="AE26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2049,6 +2080,7 @@
       </c>
       <c r="AC27"/>
       <c r="AD27"/>
+      <c r="AE27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2113,12 +2145,15 @@
         <v>43290</v>
       </c>
       <c r="AD28"/>
+      <c r="AE28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29"/>
+      <c r="B29" t="n">
+        <v>45444</v>
+      </c>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -2175,6 +2210,7 @@
       <c r="AD29" t="n">
         <v>45560</v>
       </c>
+      <c r="AE29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2234,6 +2270,9 @@
       </c>
       <c r="AD30" t="n">
         <v>46911</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>47513</v>
       </c>
     </row>
     <row r="31">
@@ -2292,6 +2331,9 @@
       </c>
       <c r="AD31" t="n">
         <v>48155</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>49298</v>
       </c>
     </row>
     <row r="32">
@@ -2348,6 +2390,9 @@
       </c>
       <c r="AD32" t="n">
         <v>49204</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>51006</v>
       </c>
     </row>
     <row r="33">
@@ -2402,6 +2447,9 @@
       </c>
       <c r="AD33" t="n">
         <v>50318</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>52266</v>
       </c>
     </row>
     <row r="34">
@@ -2454,6 +2502,9 @@
       </c>
       <c r="AD34" t="n">
         <v>51224</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>53407</v>
       </c>
     </row>
     <row r="35">
@@ -2504,6 +2555,9 @@
       </c>
       <c r="AD35" t="n">
         <v>52414</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>54434</v>
       </c>
     </row>
     <row r="36">
@@ -2552,6 +2606,9 @@
       </c>
       <c r="AD36" t="n">
         <v>53194</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>55675</v>
       </c>
     </row>
     <row r="37">
@@ -2598,6 +2655,9 @@
       </c>
       <c r="AD37" t="n">
         <v>54095</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>56883</v>
       </c>
     </row>
     <row r="38">
@@ -2642,6 +2702,9 @@
       </c>
       <c r="AD38" t="n">
         <v>54954</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>58080</v>
       </c>
     </row>
     <row r="39">
@@ -2684,6 +2747,9 @@
       </c>
       <c r="AD39" t="n">
         <v>55870</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>59008</v>
       </c>
     </row>
     <row r="40">
@@ -2724,6 +2790,9 @@
       </c>
       <c r="AD40" t="n">
         <v>56886</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>60506</v>
       </c>
     </row>
     <row r="41">
@@ -2762,6 +2831,9 @@
       </c>
       <c r="AD41" t="n">
         <v>57843</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>61323</v>
       </c>
     </row>
     <row r="42">
@@ -2799,6 +2871,46 @@
       <c r="AD42" t="n">
         <v>58745</v>
       </c>
+      <c r="AE42" t="n">
+        <v>62101</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43" t="n">
+        <v>62855</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2904,6 +3016,9 @@
       </c>
       <c r="AD1" t="s">
         <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -2943,6 +3058,7 @@
       <c r="AB2"/>
       <c r="AC2"/>
       <c r="AD2"/>
+      <c r="AE2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2983,6 +3099,7 @@
       <c r="AB3"/>
       <c r="AC3"/>
       <c r="AD3"/>
+      <c r="AE3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3025,6 +3142,7 @@
       <c r="AB4"/>
       <c r="AC4"/>
       <c r="AD4"/>
+      <c r="AE4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3069,6 +3187,7 @@
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
+      <c r="AE5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3115,6 +3234,7 @@
       <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
+      <c r="AE6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3163,6 +3283,7 @@
       <c r="AB7"/>
       <c r="AC7"/>
       <c r="AD7"/>
+      <c r="AE7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -3213,6 +3334,7 @@
       <c r="AB8"/>
       <c r="AC8"/>
       <c r="AD8"/>
+      <c r="AE8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3265,6 +3387,7 @@
       <c r="AB9"/>
       <c r="AC9"/>
       <c r="AD9"/>
+      <c r="AE9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3319,6 +3442,7 @@
       <c r="AB10"/>
       <c r="AC10"/>
       <c r="AD10"/>
+      <c r="AE10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3375,6 +3499,7 @@
       <c r="AB11"/>
       <c r="AC11"/>
       <c r="AD11"/>
+      <c r="AE11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3433,6 +3558,7 @@
       <c r="AB12"/>
       <c r="AC12"/>
       <c r="AD12"/>
+      <c r="AE12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3493,6 +3619,7 @@
       <c r="AB13"/>
       <c r="AC13"/>
       <c r="AD13"/>
+      <c r="AE13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3555,6 +3682,7 @@
       <c r="AB14"/>
       <c r="AC14"/>
       <c r="AD14"/>
+      <c r="AE14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3619,6 +3747,7 @@
       <c r="AB15"/>
       <c r="AC15"/>
       <c r="AD15"/>
+      <c r="AE15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3683,6 +3812,7 @@
       <c r="AB16"/>
       <c r="AC16"/>
       <c r="AD16"/>
+      <c r="AE16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3747,6 +3877,7 @@
       <c r="AB17"/>
       <c r="AC17"/>
       <c r="AD17"/>
+      <c r="AE17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3811,6 +3942,7 @@
       <c r="AB18"/>
       <c r="AC18"/>
       <c r="AD18"/>
+      <c r="AE18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3875,6 +4007,7 @@
       <c r="AB19"/>
       <c r="AC19"/>
       <c r="AD19"/>
+      <c r="AE19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3939,6 +4072,7 @@
       <c r="AB20"/>
       <c r="AC20"/>
       <c r="AD20"/>
+      <c r="AE20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -4003,6 +4137,7 @@
       <c r="AB21"/>
       <c r="AC21"/>
       <c r="AD21"/>
+      <c r="AE21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -4067,6 +4202,7 @@
       <c r="AB22"/>
       <c r="AC22"/>
       <c r="AD22"/>
+      <c r="AE22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -4131,6 +4267,7 @@
       <c r="AB23"/>
       <c r="AC23"/>
       <c r="AD23"/>
+      <c r="AE23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -4195,6 +4332,7 @@
       <c r="AB24"/>
       <c r="AC24"/>
       <c r="AD24"/>
+      <c r="AE24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -4259,6 +4397,7 @@
       <c r="AB25"/>
       <c r="AC25"/>
       <c r="AD25"/>
+      <c r="AE25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -4323,6 +4462,7 @@
       <c r="AB26"/>
       <c r="AC26"/>
       <c r="AD26"/>
+      <c r="AE26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -4387,6 +4527,7 @@
       </c>
       <c r="AC27"/>
       <c r="AD27"/>
+      <c r="AE27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -4451,12 +4592,15 @@
         <v>3504</v>
       </c>
       <c r="AD28"/>
+      <c r="AE28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29"/>
+      <c r="B29" t="n">
+        <v>3709</v>
+      </c>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -4513,6 +4657,7 @@
       <c r="AD29" t="n">
         <v>3684</v>
       </c>
+      <c r="AE29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -4572,6 +4717,9 @@
       </c>
       <c r="AD30" t="n">
         <v>3781</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>3849</v>
       </c>
     </row>
     <row r="31">
@@ -4630,6 +4778,9 @@
       </c>
       <c r="AD31" t="n">
         <v>3877</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>3977</v>
       </c>
     </row>
     <row r="32">
@@ -4686,6 +4837,9 @@
       </c>
       <c r="AD32" t="n">
         <v>3963</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>4086</v>
       </c>
     </row>
     <row r="33">
@@ -4740,6 +4894,9 @@
       </c>
       <c r="AD33" t="n">
         <v>4044</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>4197</v>
       </c>
     </row>
     <row r="34">
@@ -4792,6 +4949,9 @@
       </c>
       <c r="AD34" t="n">
         <v>4114</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>4297</v>
       </c>
     </row>
     <row r="35">
@@ -4842,6 +5002,9 @@
       </c>
       <c r="AD35" t="n">
         <v>4183</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>4403</v>
       </c>
     </row>
     <row r="36">
@@ -4890,6 +5053,9 @@
       </c>
       <c r="AD36" t="n">
         <v>4251</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>4504</v>
       </c>
     </row>
     <row r="37">
@@ -4936,6 +5102,9 @@
       </c>
       <c r="AD37" t="n">
         <v>4311</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>4596</v>
       </c>
     </row>
     <row r="38">
@@ -4980,6 +5149,9 @@
       </c>
       <c r="AD38" t="n">
         <v>4371</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>4684</v>
       </c>
     </row>
     <row r="39">
@@ -5022,6 +5194,9 @@
       </c>
       <c r="AD39" t="n">
         <v>4431</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>4770</v>
       </c>
     </row>
     <row r="40">
@@ -5062,6 +5237,9 @@
       </c>
       <c r="AD40" t="n">
         <v>4495</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>4862</v>
       </c>
     </row>
     <row r="41">
@@ -5100,6 +5278,9 @@
       </c>
       <c r="AD41" t="n">
         <v>4556</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>4949</v>
       </c>
     </row>
     <row r="42">
@@ -5137,6 +5318,46 @@
       <c r="AD42" t="n">
         <v>4612</v>
       </c>
+      <c r="AE42" t="n">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43" t="n">
+        <v>5115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table_SP.xlsx
+++ b/forecasts_table_SP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-25</t>
   </si>
 </sst>
 </file>
@@ -573,6 +576,9 @@
       <c r="AE1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -612,6 +618,7 @@
       <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2"/>
+      <c r="AF2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -653,6 +660,7 @@
       <c r="AC3"/>
       <c r="AD3"/>
       <c r="AE3"/>
+      <c r="AF3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -696,6 +704,7 @@
       <c r="AC4"/>
       <c r="AD4"/>
       <c r="AE4"/>
+      <c r="AF4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -741,6 +750,7 @@
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
+      <c r="AF5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -788,6 +798,7 @@
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
+      <c r="AF6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -837,6 +848,7 @@
       <c r="AC7"/>
       <c r="AD7"/>
       <c r="AE7"/>
+      <c r="AF7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -888,6 +900,7 @@
       <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8"/>
+      <c r="AF8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -941,6 +954,7 @@
       <c r="AC9"/>
       <c r="AD9"/>
       <c r="AE9"/>
+      <c r="AF9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -996,6 +1010,7 @@
       <c r="AC10"/>
       <c r="AD10"/>
       <c r="AE10"/>
+      <c r="AF10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1053,6 +1068,7 @@
       <c r="AC11"/>
       <c r="AD11"/>
       <c r="AE11"/>
+      <c r="AF11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1112,6 +1128,7 @@
       <c r="AC12"/>
       <c r="AD12"/>
       <c r="AE12"/>
+      <c r="AF12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1173,6 +1190,7 @@
       <c r="AC13"/>
       <c r="AD13"/>
       <c r="AE13"/>
+      <c r="AF13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1236,6 +1254,7 @@
       <c r="AC14"/>
       <c r="AD14"/>
       <c r="AE14"/>
+      <c r="AF14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1301,6 +1320,7 @@
       <c r="AC15"/>
       <c r="AD15"/>
       <c r="AE15"/>
+      <c r="AF15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1366,6 +1386,7 @@
       <c r="AC16"/>
       <c r="AD16"/>
       <c r="AE16"/>
+      <c r="AF16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1431,6 +1452,7 @@
       <c r="AC17"/>
       <c r="AD17"/>
       <c r="AE17"/>
+      <c r="AF17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1496,6 +1518,7 @@
       <c r="AC18"/>
       <c r="AD18"/>
       <c r="AE18"/>
+      <c r="AF18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1561,6 +1584,7 @@
       <c r="AC19"/>
       <c r="AD19"/>
       <c r="AE19"/>
+      <c r="AF19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1626,6 +1650,7 @@
       <c r="AC20"/>
       <c r="AD20"/>
       <c r="AE20"/>
+      <c r="AF20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1691,6 +1716,7 @@
       <c r="AC21"/>
       <c r="AD21"/>
       <c r="AE21"/>
+      <c r="AF21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1756,6 +1782,7 @@
       <c r="AC22"/>
       <c r="AD22"/>
       <c r="AE22"/>
+      <c r="AF22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1821,6 +1848,7 @@
       <c r="AC23"/>
       <c r="AD23"/>
       <c r="AE23"/>
+      <c r="AF23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1886,6 +1914,7 @@
       <c r="AC24"/>
       <c r="AD24"/>
       <c r="AE24"/>
+      <c r="AF24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1951,6 +1980,7 @@
       <c r="AC25"/>
       <c r="AD25"/>
       <c r="AE25"/>
+      <c r="AF25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2016,6 +2046,7 @@
       <c r="AC26"/>
       <c r="AD26"/>
       <c r="AE26"/>
+      <c r="AF26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2081,6 +2112,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
       <c r="AE27"/>
+      <c r="AF27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2146,6 +2178,7 @@
       </c>
       <c r="AD28"/>
       <c r="AE28"/>
+      <c r="AF28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2211,12 +2244,15 @@
         <v>45560</v>
       </c>
       <c r="AE29"/>
+      <c r="AF29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30"/>
+      <c r="B30" t="n">
+        <v>46131</v>
+      </c>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -2274,6 +2310,7 @@
       <c r="AE30" t="n">
         <v>47513</v>
       </c>
+      <c r="AF30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2334,6 +2371,9 @@
       </c>
       <c r="AE31" t="n">
         <v>49298</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>47802</v>
       </c>
     </row>
     <row r="32">
@@ -2393,6 +2433,9 @@
       </c>
       <c r="AE32" t="n">
         <v>51006</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>49139</v>
       </c>
     </row>
     <row r="33">
@@ -2450,6 +2493,9 @@
       </c>
       <c r="AE33" t="n">
         <v>52266</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>50314</v>
       </c>
     </row>
     <row r="34">
@@ -2505,6 +2551,9 @@
       </c>
       <c r="AE34" t="n">
         <v>53407</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>51294</v>
       </c>
     </row>
     <row r="35">
@@ -2558,6 +2607,9 @@
       </c>
       <c r="AE35" t="n">
         <v>54434</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>52445</v>
       </c>
     </row>
     <row r="36">
@@ -2609,6 +2661,9 @@
       </c>
       <c r="AE36" t="n">
         <v>55675</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>53505</v>
       </c>
     </row>
     <row r="37">
@@ -2658,6 +2713,9 @@
       </c>
       <c r="AE37" t="n">
         <v>56883</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>54586</v>
       </c>
     </row>
     <row r="38">
@@ -2705,6 +2763,9 @@
       </c>
       <c r="AE38" t="n">
         <v>58080</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>55608</v>
       </c>
     </row>
     <row r="39">
@@ -2750,6 +2811,9 @@
       </c>
       <c r="AE39" t="n">
         <v>59008</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>56587</v>
       </c>
     </row>
     <row r="40">
@@ -2793,6 +2857,9 @@
       </c>
       <c r="AE40" t="n">
         <v>60506</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>57758</v>
       </c>
     </row>
     <row r="41">
@@ -2834,6 +2901,9 @@
       </c>
       <c r="AE41" t="n">
         <v>61323</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>58548</v>
       </c>
     </row>
     <row r="42">
@@ -2873,6 +2943,9 @@
       </c>
       <c r="AE42" t="n">
         <v>62101</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>59280</v>
       </c>
     </row>
     <row r="43">
@@ -2911,6 +2984,47 @@
       <c r="AE43" t="n">
         <v>62855</v>
       </c>
+      <c r="AF43" t="n">
+        <v>60046</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44" t="n">
+        <v>60924</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3019,6 +3133,9 @@
       </c>
       <c r="AE1" t="s">
         <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -3059,6 +3176,7 @@
       <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2"/>
+      <c r="AF2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -3100,6 +3218,7 @@
       <c r="AC3"/>
       <c r="AD3"/>
       <c r="AE3"/>
+      <c r="AF3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3143,6 +3262,7 @@
       <c r="AC4"/>
       <c r="AD4"/>
       <c r="AE4"/>
+      <c r="AF4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3188,6 +3308,7 @@
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
+      <c r="AF5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3235,6 +3356,7 @@
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
+      <c r="AF6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3284,6 +3406,7 @@
       <c r="AC7"/>
       <c r="AD7"/>
       <c r="AE7"/>
+      <c r="AF7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -3335,6 +3458,7 @@
       <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8"/>
+      <c r="AF8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3388,6 +3512,7 @@
       <c r="AC9"/>
       <c r="AD9"/>
       <c r="AE9"/>
+      <c r="AF9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3443,6 +3568,7 @@
       <c r="AC10"/>
       <c r="AD10"/>
       <c r="AE10"/>
+      <c r="AF10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3500,6 +3626,7 @@
       <c r="AC11"/>
       <c r="AD11"/>
       <c r="AE11"/>
+      <c r="AF11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3559,6 +3686,7 @@
       <c r="AC12"/>
       <c r="AD12"/>
       <c r="AE12"/>
+      <c r="AF12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3620,6 +3748,7 @@
       <c r="AC13"/>
       <c r="AD13"/>
       <c r="AE13"/>
+      <c r="AF13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3683,6 +3812,7 @@
       <c r="AC14"/>
       <c r="AD14"/>
       <c r="AE14"/>
+      <c r="AF14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3748,6 +3878,7 @@
       <c r="AC15"/>
       <c r="AD15"/>
       <c r="AE15"/>
+      <c r="AF15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3813,6 +3944,7 @@
       <c r="AC16"/>
       <c r="AD16"/>
       <c r="AE16"/>
+      <c r="AF16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3878,6 +4010,7 @@
       <c r="AC17"/>
       <c r="AD17"/>
       <c r="AE17"/>
+      <c r="AF17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3943,6 +4076,7 @@
       <c r="AC18"/>
       <c r="AD18"/>
       <c r="AE18"/>
+      <c r="AF18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -4008,6 +4142,7 @@
       <c r="AC19"/>
       <c r="AD19"/>
       <c r="AE19"/>
+      <c r="AF19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -4073,6 +4208,7 @@
       <c r="AC20"/>
       <c r="AD20"/>
       <c r="AE20"/>
+      <c r="AF20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -4138,6 +4274,7 @@
       <c r="AC21"/>
       <c r="AD21"/>
       <c r="AE21"/>
+      <c r="AF21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -4203,6 +4340,7 @@
       <c r="AC22"/>
       <c r="AD22"/>
       <c r="AE22"/>
+      <c r="AF22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -4268,6 +4406,7 @@
       <c r="AC23"/>
       <c r="AD23"/>
       <c r="AE23"/>
+      <c r="AF23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -4333,6 +4472,7 @@
       <c r="AC24"/>
       <c r="AD24"/>
       <c r="AE24"/>
+      <c r="AF24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -4398,6 +4538,7 @@
       <c r="AC25"/>
       <c r="AD25"/>
       <c r="AE25"/>
+      <c r="AF25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -4463,6 +4604,7 @@
       <c r="AC26"/>
       <c r="AD26"/>
       <c r="AE26"/>
+      <c r="AF26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -4528,6 +4670,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
       <c r="AE27"/>
+      <c r="AF27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -4593,6 +4736,7 @@
       </c>
       <c r="AD28"/>
       <c r="AE28"/>
+      <c r="AF28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -4658,12 +4802,15 @@
         <v>3684</v>
       </c>
       <c r="AE29"/>
+      <c r="AF29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30"/>
+      <c r="B30" t="n">
+        <v>3743</v>
+      </c>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -4721,6 +4868,7 @@
       <c r="AE30" t="n">
         <v>3849</v>
       </c>
+      <c r="AF30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -4781,6 +4929,9 @@
       </c>
       <c r="AE31" t="n">
         <v>3977</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>3887</v>
       </c>
     </row>
     <row r="32">
@@ -4840,6 +4991,9 @@
       </c>
       <c r="AE32" t="n">
         <v>4086</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>3997</v>
       </c>
     </row>
     <row r="33">
@@ -4897,6 +5051,9 @@
       </c>
       <c r="AE33" t="n">
         <v>4197</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>4101</v>
       </c>
     </row>
     <row r="34">
@@ -4952,6 +5109,9 @@
       </c>
       <c r="AE34" t="n">
         <v>4297</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>4198</v>
       </c>
     </row>
     <row r="35">
@@ -5005,6 +5165,9 @@
       </c>
       <c r="AE35" t="n">
         <v>4403</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>4297</v>
       </c>
     </row>
     <row r="36">
@@ -5056,6 +5219,9 @@
       </c>
       <c r="AE36" t="n">
         <v>4504</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>4389</v>
       </c>
     </row>
     <row r="37">
@@ -5105,6 +5271,9 @@
       </c>
       <c r="AE37" t="n">
         <v>4596</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>4468</v>
       </c>
     </row>
     <row r="38">
@@ -5152,6 +5321,9 @@
       </c>
       <c r="AE38" t="n">
         <v>4684</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>4549</v>
       </c>
     </row>
     <row r="39">
@@ -5197,6 +5369,9 @@
       </c>
       <c r="AE39" t="n">
         <v>4770</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>4630</v>
       </c>
     </row>
     <row r="40">
@@ -5240,6 +5415,9 @@
       </c>
       <c r="AE40" t="n">
         <v>4862</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>4716</v>
       </c>
     </row>
     <row r="41">
@@ -5281,6 +5459,9 @@
       </c>
       <c r="AE41" t="n">
         <v>4949</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>4798</v>
       </c>
     </row>
     <row r="42">
@@ -5320,6 +5501,9 @@
       </c>
       <c r="AE42" t="n">
         <v>5029</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>4874</v>
       </c>
     </row>
     <row r="43">
@@ -5358,6 +5542,47 @@
       <c r="AE43" t="n">
         <v>5115</v>
       </c>
+      <c r="AF43" t="n">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44" t="n">
+        <v>5025</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table_SP.xlsx
+++ b/forecasts_table_SP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-26</t>
   </si>
 </sst>
 </file>
@@ -579,6 +582,9 @@
       <c r="AF1" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -619,6 +625,7 @@
       <c r="AD2"/>
       <c r="AE2"/>
       <c r="AF2"/>
+      <c r="AG2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -661,6 +668,7 @@
       <c r="AD3"/>
       <c r="AE3"/>
       <c r="AF3"/>
+      <c r="AG3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -705,6 +713,7 @@
       <c r="AD4"/>
       <c r="AE4"/>
       <c r="AF4"/>
+      <c r="AG4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -751,6 +760,7 @@
       <c r="AD5"/>
       <c r="AE5"/>
       <c r="AF5"/>
+      <c r="AG5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -799,6 +809,7 @@
       <c r="AD6"/>
       <c r="AE6"/>
       <c r="AF6"/>
+      <c r="AG6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -849,6 +860,7 @@
       <c r="AD7"/>
       <c r="AE7"/>
       <c r="AF7"/>
+      <c r="AG7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -901,6 +913,7 @@
       <c r="AD8"/>
       <c r="AE8"/>
       <c r="AF8"/>
+      <c r="AG8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -955,6 +968,7 @@
       <c r="AD9"/>
       <c r="AE9"/>
       <c r="AF9"/>
+      <c r="AG9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1011,6 +1025,7 @@
       <c r="AD10"/>
       <c r="AE10"/>
       <c r="AF10"/>
+      <c r="AG10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1069,6 +1084,7 @@
       <c r="AD11"/>
       <c r="AE11"/>
       <c r="AF11"/>
+      <c r="AG11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1129,6 +1145,7 @@
       <c r="AD12"/>
       <c r="AE12"/>
       <c r="AF12"/>
+      <c r="AG12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1191,6 +1208,7 @@
       <c r="AD13"/>
       <c r="AE13"/>
       <c r="AF13"/>
+      <c r="AG13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1255,6 +1273,7 @@
       <c r="AD14"/>
       <c r="AE14"/>
       <c r="AF14"/>
+      <c r="AG14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1321,6 +1340,7 @@
       <c r="AD15"/>
       <c r="AE15"/>
       <c r="AF15"/>
+      <c r="AG15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1387,6 +1407,7 @@
       <c r="AD16"/>
       <c r="AE16"/>
       <c r="AF16"/>
+      <c r="AG16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1453,6 +1474,7 @@
       <c r="AD17"/>
       <c r="AE17"/>
       <c r="AF17"/>
+      <c r="AG17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1519,6 +1541,7 @@
       <c r="AD18"/>
       <c r="AE18"/>
       <c r="AF18"/>
+      <c r="AG18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1585,6 +1608,7 @@
       <c r="AD19"/>
       <c r="AE19"/>
       <c r="AF19"/>
+      <c r="AG19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1651,6 +1675,7 @@
       <c r="AD20"/>
       <c r="AE20"/>
       <c r="AF20"/>
+      <c r="AG20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1717,6 +1742,7 @@
       <c r="AD21"/>
       <c r="AE21"/>
       <c r="AF21"/>
+      <c r="AG21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1783,6 +1809,7 @@
       <c r="AD22"/>
       <c r="AE22"/>
       <c r="AF22"/>
+      <c r="AG22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1849,6 +1876,7 @@
       <c r="AD23"/>
       <c r="AE23"/>
       <c r="AF23"/>
+      <c r="AG23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1915,6 +1943,7 @@
       <c r="AD24"/>
       <c r="AE24"/>
       <c r="AF24"/>
+      <c r="AG24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1981,6 +2010,7 @@
       <c r="AD25"/>
       <c r="AE25"/>
       <c r="AF25"/>
+      <c r="AG25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2047,6 +2077,7 @@
       <c r="AD26"/>
       <c r="AE26"/>
       <c r="AF26"/>
+      <c r="AG26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2113,6 +2144,7 @@
       <c r="AD27"/>
       <c r="AE27"/>
       <c r="AF27"/>
+      <c r="AG27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2179,6 +2211,7 @@
       <c r="AD28"/>
       <c r="AE28"/>
       <c r="AF28"/>
+      <c r="AG28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2245,6 +2278,7 @@
       </c>
       <c r="AE29"/>
       <c r="AF29"/>
+      <c r="AG29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2311,12 +2345,15 @@
         <v>47513</v>
       </c>
       <c r="AF30"/>
+      <c r="AG30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31"/>
+      <c r="B31" t="n">
+        <v>47719</v>
+      </c>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -2375,6 +2412,7 @@
       <c r="AF31" t="n">
         <v>47802</v>
       </c>
+      <c r="AG31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2436,6 +2474,9 @@
       </c>
       <c r="AF32" t="n">
         <v>49139</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>49043</v>
       </c>
     </row>
     <row r="33">
@@ -2496,6 +2537,9 @@
       </c>
       <c r="AF33" t="n">
         <v>50314</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>50184</v>
       </c>
     </row>
     <row r="34">
@@ -2554,6 +2598,9 @@
       </c>
       <c r="AF34" t="n">
         <v>51294</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>51143</v>
       </c>
     </row>
     <row r="35">
@@ -2610,6 +2657,9 @@
       </c>
       <c r="AF35" t="n">
         <v>52445</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>52320</v>
       </c>
     </row>
     <row r="36">
@@ -2664,6 +2714,9 @@
       </c>
       <c r="AF36" t="n">
         <v>53505</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>53397</v>
       </c>
     </row>
     <row r="37">
@@ -2716,6 +2769,9 @@
       </c>
       <c r="AF37" t="n">
         <v>54586</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>54496</v>
       </c>
     </row>
     <row r="38">
@@ -2766,6 +2822,9 @@
       </c>
       <c r="AF38" t="n">
         <v>55608</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>55485</v>
       </c>
     </row>
     <row r="39">
@@ -2814,6 +2873,9 @@
       </c>
       <c r="AF39" t="n">
         <v>56587</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>56380</v>
       </c>
     </row>
     <row r="40">
@@ -2860,6 +2922,9 @@
       </c>
       <c r="AF40" t="n">
         <v>57758</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>57514</v>
       </c>
     </row>
     <row r="41">
@@ -2904,6 +2969,9 @@
       </c>
       <c r="AF41" t="n">
         <v>58548</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>58283</v>
       </c>
     </row>
     <row r="42">
@@ -2946,6 +3014,9 @@
       </c>
       <c r="AF42" t="n">
         <v>59280</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>59026</v>
       </c>
     </row>
     <row r="43">
@@ -2986,6 +3057,9 @@
       </c>
       <c r="AF43" t="n">
         <v>60046</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>59821</v>
       </c>
     </row>
     <row r="44">
@@ -3025,6 +3099,48 @@
       <c r="AF44" t="n">
         <v>60924</v>
       </c>
+      <c r="AG44" t="n">
+        <v>60630</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45" t="n">
+        <v>61332</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3136,6 +3252,9 @@
       </c>
       <c r="AF1" t="s">
         <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -3177,6 +3296,7 @@
       <c r="AD2"/>
       <c r="AE2"/>
       <c r="AF2"/>
+      <c r="AG2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -3219,6 +3339,7 @@
       <c r="AD3"/>
       <c r="AE3"/>
       <c r="AF3"/>
+      <c r="AG3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3263,6 +3384,7 @@
       <c r="AD4"/>
       <c r="AE4"/>
       <c r="AF4"/>
+      <c r="AG4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3309,6 +3431,7 @@
       <c r="AD5"/>
       <c r="AE5"/>
       <c r="AF5"/>
+      <c r="AG5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3357,6 +3480,7 @@
       <c r="AD6"/>
       <c r="AE6"/>
       <c r="AF6"/>
+      <c r="AG6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3407,6 +3531,7 @@
       <c r="AD7"/>
       <c r="AE7"/>
       <c r="AF7"/>
+      <c r="AG7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -3459,6 +3584,7 @@
       <c r="AD8"/>
       <c r="AE8"/>
       <c r="AF8"/>
+      <c r="AG8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3513,6 +3639,7 @@
       <c r="AD9"/>
       <c r="AE9"/>
       <c r="AF9"/>
+      <c r="AG9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3569,6 +3696,7 @@
       <c r="AD10"/>
       <c r="AE10"/>
       <c r="AF10"/>
+      <c r="AG10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3627,6 +3755,7 @@
       <c r="AD11"/>
       <c r="AE11"/>
       <c r="AF11"/>
+      <c r="AG11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3687,6 +3816,7 @@
       <c r="AD12"/>
       <c r="AE12"/>
       <c r="AF12"/>
+      <c r="AG12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3749,6 +3879,7 @@
       <c r="AD13"/>
       <c r="AE13"/>
       <c r="AF13"/>
+      <c r="AG13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3813,6 +3944,7 @@
       <c r="AD14"/>
       <c r="AE14"/>
       <c r="AF14"/>
+      <c r="AG14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3879,6 +4011,7 @@
       <c r="AD15"/>
       <c r="AE15"/>
       <c r="AF15"/>
+      <c r="AG15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3945,6 +4078,7 @@
       <c r="AD16"/>
       <c r="AE16"/>
       <c r="AF16"/>
+      <c r="AG16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -4011,6 +4145,7 @@
       <c r="AD17"/>
       <c r="AE17"/>
       <c r="AF17"/>
+      <c r="AG17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -4077,6 +4212,7 @@
       <c r="AD18"/>
       <c r="AE18"/>
       <c r="AF18"/>
+      <c r="AG18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -4143,6 +4279,7 @@
       <c r="AD19"/>
       <c r="AE19"/>
       <c r="AF19"/>
+      <c r="AG19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -4209,6 +4346,7 @@
       <c r="AD20"/>
       <c r="AE20"/>
       <c r="AF20"/>
+      <c r="AG20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -4275,6 +4413,7 @@
       <c r="AD21"/>
       <c r="AE21"/>
       <c r="AF21"/>
+      <c r="AG21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -4341,6 +4480,7 @@
       <c r="AD22"/>
       <c r="AE22"/>
       <c r="AF22"/>
+      <c r="AG22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -4407,6 +4547,7 @@
       <c r="AD23"/>
       <c r="AE23"/>
       <c r="AF23"/>
+      <c r="AG23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -4473,6 +4614,7 @@
       <c r="AD24"/>
       <c r="AE24"/>
       <c r="AF24"/>
+      <c r="AG24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -4539,6 +4681,7 @@
       <c r="AD25"/>
       <c r="AE25"/>
       <c r="AF25"/>
+      <c r="AG25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -4605,6 +4748,7 @@
       <c r="AD26"/>
       <c r="AE26"/>
       <c r="AF26"/>
+      <c r="AG26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -4671,6 +4815,7 @@
       <c r="AD27"/>
       <c r="AE27"/>
       <c r="AF27"/>
+      <c r="AG27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -4737,6 +4882,7 @@
       <c r="AD28"/>
       <c r="AE28"/>
       <c r="AF28"/>
+      <c r="AG28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -4803,6 +4949,7 @@
       </c>
       <c r="AE29"/>
       <c r="AF29"/>
+      <c r="AG29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -4869,12 +5016,15 @@
         <v>3849</v>
       </c>
       <c r="AF30"/>
+      <c r="AG30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31"/>
+      <c r="B31" t="n">
+        <v>3949</v>
+      </c>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -4933,6 +5083,7 @@
       <c r="AF31" t="n">
         <v>3887</v>
       </c>
+      <c r="AG31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -4994,6 +5145,9 @@
       </c>
       <c r="AF32" t="n">
         <v>3997</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>4061</v>
       </c>
     </row>
     <row r="33">
@@ -5054,6 +5208,9 @@
       </c>
       <c r="AF33" t="n">
         <v>4101</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>4184</v>
       </c>
     </row>
     <row r="34">
@@ -5112,6 +5269,9 @@
       </c>
       <c r="AF34" t="n">
         <v>4198</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>4287</v>
       </c>
     </row>
     <row r="35">
@@ -5168,6 +5328,9 @@
       </c>
       <c r="AF35" t="n">
         <v>4297</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>4384</v>
       </c>
     </row>
     <row r="36">
@@ -5222,6 +5385,9 @@
       </c>
       <c r="AF36" t="n">
         <v>4389</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>4489</v>
       </c>
     </row>
     <row r="37">
@@ -5274,6 +5440,9 @@
       </c>
       <c r="AF37" t="n">
         <v>4468</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>4593</v>
       </c>
     </row>
     <row r="38">
@@ -5324,6 +5493,9 @@
       </c>
       <c r="AF38" t="n">
         <v>4549</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>4698</v>
       </c>
     </row>
     <row r="39">
@@ -5372,6 +5544,9 @@
       </c>
       <c r="AF39" t="n">
         <v>4630</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>4772</v>
       </c>
     </row>
     <row r="40">
@@ -5418,6 +5593,9 @@
       </c>
       <c r="AF40" t="n">
         <v>4716</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>4922</v>
       </c>
     </row>
     <row r="41">
@@ -5462,6 +5640,9 @@
       </c>
       <c r="AF41" t="n">
         <v>4798</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>5014</v>
       </c>
     </row>
     <row r="42">
@@ -5504,6 +5685,9 @@
       </c>
       <c r="AF42" t="n">
         <v>4874</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>5099</v>
       </c>
     </row>
     <row r="43">
@@ -5544,6 +5728,9 @@
       </c>
       <c r="AF43" t="n">
         <v>4951</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>5189</v>
       </c>
     </row>
     <row r="44">
@@ -5583,6 +5770,48 @@
       <c r="AF44" t="n">
         <v>5025</v>
       </c>
+      <c r="AG44" t="n">
+        <v>5274</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45" t="n">
+        <v>5348</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table_SP.xlsx
+++ b/forecasts_table_SP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-27</t>
   </si>
 </sst>
 </file>
@@ -585,6 +588,9 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -626,6 +632,7 @@
       <c r="AE2"/>
       <c r="AF2"/>
       <c r="AG2"/>
+      <c r="AH2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -669,6 +676,7 @@
       <c r="AE3"/>
       <c r="AF3"/>
       <c r="AG3"/>
+      <c r="AH3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -714,6 +722,7 @@
       <c r="AE4"/>
       <c r="AF4"/>
       <c r="AG4"/>
+      <c r="AH4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -761,6 +770,7 @@
       <c r="AE5"/>
       <c r="AF5"/>
       <c r="AG5"/>
+      <c r="AH5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -810,6 +820,7 @@
       <c r="AE6"/>
       <c r="AF6"/>
       <c r="AG6"/>
+      <c r="AH6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -861,6 +872,7 @@
       <c r="AE7"/>
       <c r="AF7"/>
       <c r="AG7"/>
+      <c r="AH7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -914,6 +926,7 @@
       <c r="AE8"/>
       <c r="AF8"/>
       <c r="AG8"/>
+      <c r="AH8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -969,6 +982,7 @@
       <c r="AE9"/>
       <c r="AF9"/>
       <c r="AG9"/>
+      <c r="AH9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1026,6 +1040,7 @@
       <c r="AE10"/>
       <c r="AF10"/>
       <c r="AG10"/>
+      <c r="AH10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1085,6 +1100,7 @@
       <c r="AE11"/>
       <c r="AF11"/>
       <c r="AG11"/>
+      <c r="AH11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1146,6 +1162,7 @@
       <c r="AE12"/>
       <c r="AF12"/>
       <c r="AG12"/>
+      <c r="AH12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1209,6 +1226,7 @@
       <c r="AE13"/>
       <c r="AF13"/>
       <c r="AG13"/>
+      <c r="AH13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1274,6 +1292,7 @@
       <c r="AE14"/>
       <c r="AF14"/>
       <c r="AG14"/>
+      <c r="AH14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1341,6 +1360,7 @@
       <c r="AE15"/>
       <c r="AF15"/>
       <c r="AG15"/>
+      <c r="AH15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1408,6 +1428,7 @@
       <c r="AE16"/>
       <c r="AF16"/>
       <c r="AG16"/>
+      <c r="AH16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1475,6 +1496,7 @@
       <c r="AE17"/>
       <c r="AF17"/>
       <c r="AG17"/>
+      <c r="AH17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1542,6 +1564,7 @@
       <c r="AE18"/>
       <c r="AF18"/>
       <c r="AG18"/>
+      <c r="AH18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1609,6 +1632,7 @@
       <c r="AE19"/>
       <c r="AF19"/>
       <c r="AG19"/>
+      <c r="AH19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1676,6 +1700,7 @@
       <c r="AE20"/>
       <c r="AF20"/>
       <c r="AG20"/>
+      <c r="AH20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1743,6 +1768,7 @@
       <c r="AE21"/>
       <c r="AF21"/>
       <c r="AG21"/>
+      <c r="AH21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1810,6 +1836,7 @@
       <c r="AE22"/>
       <c r="AF22"/>
       <c r="AG22"/>
+      <c r="AH22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1877,6 +1904,7 @@
       <c r="AE23"/>
       <c r="AF23"/>
       <c r="AG23"/>
+      <c r="AH23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1944,6 +1972,7 @@
       <c r="AE24"/>
       <c r="AF24"/>
       <c r="AG24"/>
+      <c r="AH24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2011,6 +2040,7 @@
       <c r="AE25"/>
       <c r="AF25"/>
       <c r="AG25"/>
+      <c r="AH25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2078,6 +2108,7 @@
       <c r="AE26"/>
       <c r="AF26"/>
       <c r="AG26"/>
+      <c r="AH26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2145,6 +2176,7 @@
       <c r="AE27"/>
       <c r="AF27"/>
       <c r="AG27"/>
+      <c r="AH27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2212,6 +2244,7 @@
       <c r="AE28"/>
       <c r="AF28"/>
       <c r="AG28"/>
+      <c r="AH28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2279,6 +2312,7 @@
       <c r="AE29"/>
       <c r="AF29"/>
       <c r="AG29"/>
+      <c r="AH29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2346,6 +2380,7 @@
       </c>
       <c r="AF30"/>
       <c r="AG30"/>
+      <c r="AH30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2413,12 +2448,15 @@
         <v>47802</v>
       </c>
       <c r="AG31"/>
+      <c r="AH31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32"/>
+      <c r="B32" t="n">
+        <v>51097</v>
+      </c>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -2478,6 +2516,7 @@
       <c r="AG32" t="n">
         <v>49043</v>
       </c>
+      <c r="AH32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -2540,6 +2579,9 @@
       </c>
       <c r="AG33" t="n">
         <v>50184</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>52323</v>
       </c>
     </row>
     <row r="34">
@@ -2601,6 +2643,9 @@
       </c>
       <c r="AG34" t="n">
         <v>51143</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>53383</v>
       </c>
     </row>
     <row r="35">
@@ -2660,6 +2705,9 @@
       </c>
       <c r="AG35" t="n">
         <v>52320</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>54465</v>
       </c>
     </row>
     <row r="36">
@@ -2717,6 +2765,9 @@
       </c>
       <c r="AG36" t="n">
         <v>53397</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>55705</v>
       </c>
     </row>
     <row r="37">
@@ -2772,6 +2823,9 @@
       </c>
       <c r="AG37" t="n">
         <v>54496</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>56930</v>
       </c>
     </row>
     <row r="38">
@@ -2825,6 +2879,9 @@
       </c>
       <c r="AG38" t="n">
         <v>55485</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>58097</v>
       </c>
     </row>
     <row r="39">
@@ -2876,6 +2933,9 @@
       </c>
       <c r="AG39" t="n">
         <v>56380</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>59021</v>
       </c>
     </row>
     <row r="40">
@@ -2925,6 +2985,9 @@
       </c>
       <c r="AG40" t="n">
         <v>57514</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>60428</v>
       </c>
     </row>
     <row r="41">
@@ -2972,6 +3035,9 @@
       </c>
       <c r="AG41" t="n">
         <v>58283</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>61299</v>
       </c>
     </row>
     <row r="42">
@@ -3017,6 +3083,9 @@
       </c>
       <c r="AG42" t="n">
         <v>59026</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>62148</v>
       </c>
     </row>
     <row r="43">
@@ -3060,6 +3129,9 @@
       </c>
       <c r="AG43" t="n">
         <v>59821</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>63048</v>
       </c>
     </row>
     <row r="44">
@@ -3101,6 +3173,9 @@
       </c>
       <c r="AG44" t="n">
         <v>60630</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>63962</v>
       </c>
     </row>
     <row r="45">
@@ -3141,6 +3216,49 @@
       <c r="AG45" t="n">
         <v>61332</v>
       </c>
+      <c r="AH45" t="n">
+        <v>64830</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46" t="n">
+        <v>65805</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3255,6 +3373,9 @@
       </c>
       <c r="AG1" t="s">
         <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -3297,6 +3418,7 @@
       <c r="AE2"/>
       <c r="AF2"/>
       <c r="AG2"/>
+      <c r="AH2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -3340,6 +3462,7 @@
       <c r="AE3"/>
       <c r="AF3"/>
       <c r="AG3"/>
+      <c r="AH3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3385,6 +3508,7 @@
       <c r="AE4"/>
       <c r="AF4"/>
       <c r="AG4"/>
+      <c r="AH4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3432,6 +3556,7 @@
       <c r="AE5"/>
       <c r="AF5"/>
       <c r="AG5"/>
+      <c r="AH5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3481,6 +3606,7 @@
       <c r="AE6"/>
       <c r="AF6"/>
       <c r="AG6"/>
+      <c r="AH6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3532,6 +3658,7 @@
       <c r="AE7"/>
       <c r="AF7"/>
       <c r="AG7"/>
+      <c r="AH7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -3585,6 +3712,7 @@
       <c r="AE8"/>
       <c r="AF8"/>
       <c r="AG8"/>
+      <c r="AH8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3640,6 +3768,7 @@
       <c r="AE9"/>
       <c r="AF9"/>
       <c r="AG9"/>
+      <c r="AH9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3697,6 +3826,7 @@
       <c r="AE10"/>
       <c r="AF10"/>
       <c r="AG10"/>
+      <c r="AH10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3756,6 +3886,7 @@
       <c r="AE11"/>
       <c r="AF11"/>
       <c r="AG11"/>
+      <c r="AH11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3817,6 +3948,7 @@
       <c r="AE12"/>
       <c r="AF12"/>
       <c r="AG12"/>
+      <c r="AH12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3880,6 +4012,7 @@
       <c r="AE13"/>
       <c r="AF13"/>
       <c r="AG13"/>
+      <c r="AH13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3945,6 +4078,7 @@
       <c r="AE14"/>
       <c r="AF14"/>
       <c r="AG14"/>
+      <c r="AH14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -4012,6 +4146,7 @@
       <c r="AE15"/>
       <c r="AF15"/>
       <c r="AG15"/>
+      <c r="AH15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -4079,6 +4214,7 @@
       <c r="AE16"/>
       <c r="AF16"/>
       <c r="AG16"/>
+      <c r="AH16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -4146,6 +4282,7 @@
       <c r="AE17"/>
       <c r="AF17"/>
       <c r="AG17"/>
+      <c r="AH17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -4213,6 +4350,7 @@
       <c r="AE18"/>
       <c r="AF18"/>
       <c r="AG18"/>
+      <c r="AH18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -4280,6 +4418,7 @@
       <c r="AE19"/>
       <c r="AF19"/>
       <c r="AG19"/>
+      <c r="AH19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -4347,6 +4486,7 @@
       <c r="AE20"/>
       <c r="AF20"/>
       <c r="AG20"/>
+      <c r="AH20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -4414,6 +4554,7 @@
       <c r="AE21"/>
       <c r="AF21"/>
       <c r="AG21"/>
+      <c r="AH21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -4481,6 +4622,7 @@
       <c r="AE22"/>
       <c r="AF22"/>
       <c r="AG22"/>
+      <c r="AH22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -4548,6 +4690,7 @@
       <c r="AE23"/>
       <c r="AF23"/>
       <c r="AG23"/>
+      <c r="AH23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -4615,6 +4758,7 @@
       <c r="AE24"/>
       <c r="AF24"/>
       <c r="AG24"/>
+      <c r="AH24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -4682,6 +4826,7 @@
       <c r="AE25"/>
       <c r="AF25"/>
       <c r="AG25"/>
+      <c r="AH25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -4749,6 +4894,7 @@
       <c r="AE26"/>
       <c r="AF26"/>
       <c r="AG26"/>
+      <c r="AH26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -4816,6 +4962,7 @@
       <c r="AE27"/>
       <c r="AF27"/>
       <c r="AG27"/>
+      <c r="AH27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -4883,6 +5030,7 @@
       <c r="AE28"/>
       <c r="AF28"/>
       <c r="AG28"/>
+      <c r="AH28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -4950,6 +5098,7 @@
       <c r="AE29"/>
       <c r="AF29"/>
       <c r="AG29"/>
+      <c r="AH29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -5017,6 +5166,7 @@
       </c>
       <c r="AF30"/>
       <c r="AG30"/>
+      <c r="AH30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -5084,12 +5234,15 @@
         <v>3887</v>
       </c>
       <c r="AG31"/>
+      <c r="AH31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32"/>
+      <c r="B32" t="n">
+        <v>4118</v>
+      </c>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -5149,6 +5302,7 @@
       <c r="AG32" t="n">
         <v>4061</v>
       </c>
+      <c r="AH32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -5211,6 +5365,9 @@
       </c>
       <c r="AG33" t="n">
         <v>4184</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>4235</v>
       </c>
     </row>
     <row r="34">
@@ -5272,6 +5429,9 @@
       </c>
       <c r="AG34" t="n">
         <v>4287</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>4329</v>
       </c>
     </row>
     <row r="35">
@@ -5331,6 +5491,9 @@
       </c>
       <c r="AG35" t="n">
         <v>4384</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>4418</v>
       </c>
     </row>
     <row r="36">
@@ -5388,6 +5551,9 @@
       </c>
       <c r="AG36" t="n">
         <v>4489</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>4510</v>
       </c>
     </row>
     <row r="37">
@@ -5443,6 +5609,9 @@
       </c>
       <c r="AG37" t="n">
         <v>4593</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>4589</v>
       </c>
     </row>
     <row r="38">
@@ -5496,6 +5665,9 @@
       </c>
       <c r="AG38" t="n">
         <v>4698</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>4671</v>
       </c>
     </row>
     <row r="39">
@@ -5547,6 +5719,9 @@
       </c>
       <c r="AG39" t="n">
         <v>4772</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>4753</v>
       </c>
     </row>
     <row r="40">
@@ -5596,6 +5771,9 @@
       </c>
       <c r="AG40" t="n">
         <v>4922</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>4833</v>
       </c>
     </row>
     <row r="41">
@@ -5643,6 +5821,9 @@
       </c>
       <c r="AG41" t="n">
         <v>5014</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>4917</v>
       </c>
     </row>
     <row r="42">
@@ -5688,6 +5869,9 @@
       </c>
       <c r="AG42" t="n">
         <v>5099</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>5002</v>
       </c>
     </row>
     <row r="43">
@@ -5731,6 +5915,9 @@
       </c>
       <c r="AG43" t="n">
         <v>5189</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>5079</v>
       </c>
     </row>
     <row r="44">
@@ -5772,6 +5959,9 @@
       </c>
       <c r="AG44" t="n">
         <v>5274</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>5154</v>
       </c>
     </row>
     <row r="45">
@@ -5812,6 +6002,49 @@
       <c r="AG45" t="n">
         <v>5348</v>
       </c>
+      <c r="AH45" t="n">
+        <v>5224</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46" t="n">
+        <v>5295</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table_SP.xlsx
+++ b/forecasts_table_SP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-28</t>
   </si>
 </sst>
 </file>
@@ -591,6 +594,9 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -633,6 +639,7 @@
       <c r="AF2"/>
       <c r="AG2"/>
       <c r="AH2"/>
+      <c r="AI2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -677,6 +684,7 @@
       <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
+      <c r="AI3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -723,6 +731,7 @@
       <c r="AF4"/>
       <c r="AG4"/>
       <c r="AH4"/>
+      <c r="AI4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -771,6 +780,7 @@
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
+      <c r="AI5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -821,6 +831,7 @@
       <c r="AF6"/>
       <c r="AG6"/>
       <c r="AH6"/>
+      <c r="AI6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -873,6 +884,7 @@
       <c r="AF7"/>
       <c r="AG7"/>
       <c r="AH7"/>
+      <c r="AI7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -927,6 +939,7 @@
       <c r="AF8"/>
       <c r="AG8"/>
       <c r="AH8"/>
+      <c r="AI8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -983,6 +996,7 @@
       <c r="AF9"/>
       <c r="AG9"/>
       <c r="AH9"/>
+      <c r="AI9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1041,6 +1055,7 @@
       <c r="AF10"/>
       <c r="AG10"/>
       <c r="AH10"/>
+      <c r="AI10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1101,6 +1116,7 @@
       <c r="AF11"/>
       <c r="AG11"/>
       <c r="AH11"/>
+      <c r="AI11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1163,6 +1179,7 @@
       <c r="AF12"/>
       <c r="AG12"/>
       <c r="AH12"/>
+      <c r="AI12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1227,6 +1244,7 @@
       <c r="AF13"/>
       <c r="AG13"/>
       <c r="AH13"/>
+      <c r="AI13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1293,6 +1311,7 @@
       <c r="AF14"/>
       <c r="AG14"/>
       <c r="AH14"/>
+      <c r="AI14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1361,6 +1380,7 @@
       <c r="AF15"/>
       <c r="AG15"/>
       <c r="AH15"/>
+      <c r="AI15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1429,6 +1449,7 @@
       <c r="AF16"/>
       <c r="AG16"/>
       <c r="AH16"/>
+      <c r="AI16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1497,6 +1518,7 @@
       <c r="AF17"/>
       <c r="AG17"/>
       <c r="AH17"/>
+      <c r="AI17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1565,6 +1587,7 @@
       <c r="AF18"/>
       <c r="AG18"/>
       <c r="AH18"/>
+      <c r="AI18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1633,6 +1656,7 @@
       <c r="AF19"/>
       <c r="AG19"/>
       <c r="AH19"/>
+      <c r="AI19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1701,6 +1725,7 @@
       <c r="AF20"/>
       <c r="AG20"/>
       <c r="AH20"/>
+      <c r="AI20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1769,6 +1794,7 @@
       <c r="AF21"/>
       <c r="AG21"/>
       <c r="AH21"/>
+      <c r="AI21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1837,6 +1863,7 @@
       <c r="AF22"/>
       <c r="AG22"/>
       <c r="AH22"/>
+      <c r="AI22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1905,6 +1932,7 @@
       <c r="AF23"/>
       <c r="AG23"/>
       <c r="AH23"/>
+      <c r="AI23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1973,6 +2001,7 @@
       <c r="AF24"/>
       <c r="AG24"/>
       <c r="AH24"/>
+      <c r="AI24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2041,6 +2070,7 @@
       <c r="AF25"/>
       <c r="AG25"/>
       <c r="AH25"/>
+      <c r="AI25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2109,6 +2139,7 @@
       <c r="AF26"/>
       <c r="AG26"/>
       <c r="AH26"/>
+      <c r="AI26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2177,6 +2208,7 @@
       <c r="AF27"/>
       <c r="AG27"/>
       <c r="AH27"/>
+      <c r="AI27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2245,6 +2277,7 @@
       <c r="AF28"/>
       <c r="AG28"/>
       <c r="AH28"/>
+      <c r="AI28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2313,6 +2346,7 @@
       <c r="AF29"/>
       <c r="AG29"/>
       <c r="AH29"/>
+      <c r="AI29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2381,6 +2415,7 @@
       <c r="AF30"/>
       <c r="AG30"/>
       <c r="AH30"/>
+      <c r="AI30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2449,6 +2484,7 @@
       </c>
       <c r="AG31"/>
       <c r="AH31"/>
+      <c r="AI31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2517,12 +2553,15 @@
         <v>49043</v>
       </c>
       <c r="AH32"/>
+      <c r="AI32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33"/>
+      <c r="B33" t="n">
+        <v>54286</v>
+      </c>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
@@ -2583,6 +2622,7 @@
       <c r="AH33" t="n">
         <v>52323</v>
       </c>
+      <c r="AI33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -2646,6 +2686,9 @@
       </c>
       <c r="AH34" t="n">
         <v>53383</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>56048</v>
       </c>
     </row>
     <row r="35">
@@ -2708,6 +2751,9 @@
       </c>
       <c r="AH35" t="n">
         <v>54465</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>57410</v>
       </c>
     </row>
     <row r="36">
@@ -2768,6 +2814,9 @@
       </c>
       <c r="AH36" t="n">
         <v>55705</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>58969</v>
       </c>
     </row>
     <row r="37">
@@ -2826,6 +2875,9 @@
       </c>
       <c r="AH37" t="n">
         <v>56930</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>60450</v>
       </c>
     </row>
     <row r="38">
@@ -2882,6 +2934,9 @@
       </c>
       <c r="AH38" t="n">
         <v>58097</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>61984</v>
       </c>
     </row>
     <row r="39">
@@ -2936,6 +2991,9 @@
       </c>
       <c r="AH39" t="n">
         <v>59021</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>63093</v>
       </c>
     </row>
     <row r="40">
@@ -2988,6 +3046,9 @@
       </c>
       <c r="AH40" t="n">
         <v>60428</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>65018</v>
       </c>
     </row>
     <row r="41">
@@ -3038,6 +3099,9 @@
       </c>
       <c r="AH41" t="n">
         <v>61299</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>66323</v>
       </c>
     </row>
     <row r="42">
@@ -3086,6 +3150,9 @@
       </c>
       <c r="AH42" t="n">
         <v>62148</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>67574</v>
       </c>
     </row>
     <row r="43">
@@ -3132,6 +3199,9 @@
       </c>
       <c r="AH43" t="n">
         <v>63048</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>68724</v>
       </c>
     </row>
     <row r="44">
@@ -3176,6 +3246,9 @@
       </c>
       <c r="AH44" t="n">
         <v>63962</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>69833</v>
       </c>
     </row>
     <row r="45">
@@ -3218,6 +3291,9 @@
       </c>
       <c r="AH45" t="n">
         <v>64830</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>70778</v>
       </c>
     </row>
     <row r="46">
@@ -3259,6 +3335,50 @@
       <c r="AH46" t="n">
         <v>65805</v>
       </c>
+      <c r="AI46" t="n">
+        <v>71910</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47" t="n">
+        <v>72998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3376,6 +3496,9 @@
       </c>
       <c r="AH1" t="s">
         <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -3419,6 +3542,7 @@
       <c r="AF2"/>
       <c r="AG2"/>
       <c r="AH2"/>
+      <c r="AI2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -3463,6 +3587,7 @@
       <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
+      <c r="AI3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3509,6 +3634,7 @@
       <c r="AF4"/>
       <c r="AG4"/>
       <c r="AH4"/>
+      <c r="AI4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3557,6 +3683,7 @@
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
+      <c r="AI5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3607,6 +3734,7 @@
       <c r="AF6"/>
       <c r="AG6"/>
       <c r="AH6"/>
+      <c r="AI6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3659,6 +3787,7 @@
       <c r="AF7"/>
       <c r="AG7"/>
       <c r="AH7"/>
+      <c r="AI7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -3713,6 +3842,7 @@
       <c r="AF8"/>
       <c r="AG8"/>
       <c r="AH8"/>
+      <c r="AI8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3769,6 +3899,7 @@
       <c r="AF9"/>
       <c r="AG9"/>
       <c r="AH9"/>
+      <c r="AI9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3827,6 +3958,7 @@
       <c r="AF10"/>
       <c r="AG10"/>
       <c r="AH10"/>
+      <c r="AI10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3887,6 +4019,7 @@
       <c r="AF11"/>
       <c r="AG11"/>
       <c r="AH11"/>
+      <c r="AI11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3949,6 +4082,7 @@
       <c r="AF12"/>
       <c r="AG12"/>
       <c r="AH12"/>
+      <c r="AI12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -4013,6 +4147,7 @@
       <c r="AF13"/>
       <c r="AG13"/>
       <c r="AH13"/>
+      <c r="AI13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -4079,6 +4214,7 @@
       <c r="AF14"/>
       <c r="AG14"/>
       <c r="AH14"/>
+      <c r="AI14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -4147,6 +4283,7 @@
       <c r="AF15"/>
       <c r="AG15"/>
       <c r="AH15"/>
+      <c r="AI15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -4215,6 +4352,7 @@
       <c r="AF16"/>
       <c r="AG16"/>
       <c r="AH16"/>
+      <c r="AI16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -4283,6 +4421,7 @@
       <c r="AF17"/>
       <c r="AG17"/>
       <c r="AH17"/>
+      <c r="AI17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -4351,6 +4490,7 @@
       <c r="AF18"/>
       <c r="AG18"/>
       <c r="AH18"/>
+      <c r="AI18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -4419,6 +4559,7 @@
       <c r="AF19"/>
       <c r="AG19"/>
       <c r="AH19"/>
+      <c r="AI19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -4487,6 +4628,7 @@
       <c r="AF20"/>
       <c r="AG20"/>
       <c r="AH20"/>
+      <c r="AI20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -4555,6 +4697,7 @@
       <c r="AF21"/>
       <c r="AG21"/>
       <c r="AH21"/>
+      <c r="AI21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -4623,6 +4766,7 @@
       <c r="AF22"/>
       <c r="AG22"/>
       <c r="AH22"/>
+      <c r="AI22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -4691,6 +4835,7 @@
       <c r="AF23"/>
       <c r="AG23"/>
       <c r="AH23"/>
+      <c r="AI23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -4759,6 +4904,7 @@
       <c r="AF24"/>
       <c r="AG24"/>
       <c r="AH24"/>
+      <c r="AI24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -4827,6 +4973,7 @@
       <c r="AF25"/>
       <c r="AG25"/>
       <c r="AH25"/>
+      <c r="AI25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -4895,6 +5042,7 @@
       <c r="AF26"/>
       <c r="AG26"/>
       <c r="AH26"/>
+      <c r="AI26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -4963,6 +5111,7 @@
       <c r="AF27"/>
       <c r="AG27"/>
       <c r="AH27"/>
+      <c r="AI27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -5031,6 +5180,7 @@
       <c r="AF28"/>
       <c r="AG28"/>
       <c r="AH28"/>
+      <c r="AI28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -5099,6 +5249,7 @@
       <c r="AF29"/>
       <c r="AG29"/>
       <c r="AH29"/>
+      <c r="AI29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -5167,6 +5318,7 @@
       <c r="AF30"/>
       <c r="AG30"/>
       <c r="AH30"/>
+      <c r="AI30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -5235,6 +5387,7 @@
       </c>
       <c r="AG31"/>
       <c r="AH31"/>
+      <c r="AI31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -5303,12 +5456,15 @@
         <v>4061</v>
       </c>
       <c r="AH32"/>
+      <c r="AI32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33"/>
+      <c r="B33" t="n">
+        <v>4315</v>
+      </c>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
@@ -5369,6 +5525,7 @@
       <c r="AH33" t="n">
         <v>4235</v>
       </c>
+      <c r="AI33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -5432,6 +5589,9 @@
       </c>
       <c r="AH34" t="n">
         <v>4329</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>4427</v>
       </c>
     </row>
     <row r="35">
@@ -5494,6 +5654,9 @@
       </c>
       <c r="AH35" t="n">
         <v>4418</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>4507</v>
       </c>
     </row>
     <row r="36">
@@ -5554,6 +5717,9 @@
       </c>
       <c r="AH36" t="n">
         <v>4510</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>4595</v>
       </c>
     </row>
     <row r="37">
@@ -5612,6 +5778,9 @@
       </c>
       <c r="AH37" t="n">
         <v>4589</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>4669</v>
       </c>
     </row>
     <row r="38">
@@ -5668,6 +5837,9 @@
       </c>
       <c r="AH38" t="n">
         <v>4671</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>4748</v>
       </c>
     </row>
     <row r="39">
@@ -5722,6 +5894,9 @@
       </c>
       <c r="AH39" t="n">
         <v>4753</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>4825</v>
       </c>
     </row>
     <row r="40">
@@ -5774,6 +5949,9 @@
       </c>
       <c r="AH40" t="n">
         <v>4833</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>4898</v>
       </c>
     </row>
     <row r="41">
@@ -5824,6 +6002,9 @@
       </c>
       <c r="AH41" t="n">
         <v>4917</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>4975</v>
       </c>
     </row>
     <row r="42">
@@ -5872,6 +6053,9 @@
       </c>
       <c r="AH42" t="n">
         <v>5002</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>5053</v>
       </c>
     </row>
     <row r="43">
@@ -5918,6 +6102,9 @@
       </c>
       <c r="AH43" t="n">
         <v>5079</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>5123</v>
       </c>
     </row>
     <row r="44">
@@ -5962,6 +6149,9 @@
       </c>
       <c r="AH44" t="n">
         <v>5154</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>5191</v>
       </c>
     </row>
     <row r="45">
@@ -6004,6 +6194,9 @@
       </c>
       <c r="AH45" t="n">
         <v>5224</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>5259</v>
       </c>
     </row>
     <row r="46">
@@ -6045,6 +6238,50 @@
       <c r="AH46" t="n">
         <v>5295</v>
       </c>
+      <c r="AI46" t="n">
+        <v>5326</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47" t="n">
+        <v>5394</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
